--- a/sriramModel-nelson-atypical-patientID_1-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.001392643346771</v>
+        <v>2.103237016452786</v>
       </c>
       <c r="C2">
-        <v>2.413848112299239</v>
+        <v>2.003054142349444</v>
       </c>
       <c r="D2">
-        <v>2.010564113657852</v>
+        <v>2.007164446642568</v>
       </c>
       <c r="E2">
-        <v>2.020153556660963</v>
+        <v>2.308187985133958</v>
       </c>
       <c r="F2">
-        <v>2.007652052756149</v>
+        <v>2.025913343357785</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.002812653648037</v>
+        <v>2.205174650803865</v>
       </c>
       <c r="C3">
-        <v>2.819208241996675</v>
+        <v>2.006132387166962</v>
       </c>
       <c r="D3">
-        <v>2.021121078530657</v>
+        <v>2.01442751397942</v>
       </c>
       <c r="E3">
-        <v>2.040372299869799</v>
+        <v>2.609679565485379</v>
       </c>
       <c r="F3">
-        <v>2.015321485780655</v>
+        <v>2.051829457440385</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.004259805341631</v>
+        <v>2.305845608895224</v>
       </c>
       <c r="C4">
-        <v>3.216008045663016</v>
+        <v>2.009234519342856</v>
       </c>
       <c r="D4">
-        <v>2.03167052015673</v>
+        <v>2.021790927843802</v>
       </c>
       <c r="E4">
-        <v>2.060656921313255</v>
+        <v>2.904715356287958</v>
       </c>
       <c r="F4">
-        <v>2.023008222757766</v>
+        <v>2.077748296661224</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.005733875447714</v>
+        <v>2.405290975313128</v>
       </c>
       <c r="C5">
-        <v>3.604083666558394</v>
+        <v>2.01236031747531</v>
       </c>
       <c r="D5">
-        <v>2.042212075388389</v>
+        <v>2.02925651643442</v>
       </c>
       <c r="E5">
-        <v>2.081008200855573</v>
+        <v>3.193581983236001</v>
       </c>
       <c r="F5">
-        <v>2.030712188640874</v>
+        <v>2.103669816679691</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.007234643489518</v>
+        <v>2.503562467641389</v>
       </c>
       <c r="C6">
-        <v>3.983258970977953</v>
+        <v>2.015509564496464</v>
       </c>
       <c r="D6">
-        <v>2.052745391740835</v>
+        <v>2.036826134024152</v>
       </c>
       <c r="E6">
-        <v>2.101427011898211</v>
+        <v>3.476618067442646</v>
       </c>
       <c r="F6">
-        <v>2.038433309583576</v>
+        <v>2.129593974278686</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.008761891416523</v>
+        <v>2.60072504105278</v>
       </c>
       <c r="C7">
-        <v>4.353388721472398</v>
+        <v>2.018682044796537</v>
       </c>
       <c r="D7">
-        <v>2.063270126774065</v>
+        <v>2.044501666126469</v>
       </c>
       <c r="E7">
-        <v>2.121914327146943</v>
+        <v>3.754213539542664</v>
       </c>
       <c r="F7">
-        <v>2.046171512872458</v>
+        <v>2.155520727246037</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.010315403526713</v>
+        <v>2.696859735593388</v>
       </c>
       <c r="C8">
-        <v>4.714376408306089</v>
+        <v>2.021877543950305</v>
       </c>
       <c r="D8">
-        <v>2.073785947506659</v>
+        <v>2.05228504152337</v>
       </c>
       <c r="E8">
-        <v>2.14247122463804</v>
+        <v>4.02679895604153</v>
       </c>
       <c r="F8">
-        <v>2.05392672686078</v>
+        <v>2.181450034285743</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.011894966391677</v>
+        <v>2.792066356614364</v>
       </c>
       <c r="C9">
-        <v>5.066177117244639</v>
+        <v>2.0250958488943</v>
       </c>
       <c r="D9">
-        <v>2.084292529860228</v>
+        <v>2.060178235714474</v>
       </c>
       <c r="E9">
-        <v>2.163098894206263</v>
+        <v>4.294822912499385</v>
       </c>
       <c r="F9">
-        <v>2.061698880905669</v>
+        <v>2.207381854949249</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.01350036878131</v>
+        <v>2.88646555994911</v>
       </c>
       <c r="C10">
-        <v>5.408793190154507</v>
+        <v>2.028336747842717</v>
       </c>
       <c r="D10">
-        <v>2.094789558133094</v>
+        <v>2.068183269059736</v>
       </c>
       <c r="E10">
-        <v>2.183798644325666</v>
+        <v>4.558718637452344</v>
       </c>
       <c r="F10">
-        <v>2.069487905305774</v>
+        <v>2.233316149569462</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.015131401589502</v>
+        <v>2.980199827081767</v>
       </c>
       <c r="C11">
-        <v>5.742267596408059</v>
+        <v>2.031600030266122</v>
       </c>
       <c r="D11">
-        <v>2.105276724501939</v>
+        <v>2.076302207836274</v>
       </c>
       <c r="E11">
-        <v>2.204571909374037</v>
+        <v>4.81886494787876</v>
       </c>
       <c r="F11">
-        <v>2.077293731241779</v>
+        <v>2.259252879175794</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.016787857761106</v>
+        <v>3.073432583892065</v>
       </c>
       <c r="C12">
-        <v>6.066677234718585</v>
+        <v>2.034885486798394</v>
       </c>
       <c r="D12">
-        <v>2.115753728550207</v>
+        <v>2.084537164489169</v>
       </c>
       <c r="E12">
-        <v>2.225420257355831</v>
+        <v>5.075550317486644</v>
       </c>
       <c r="F12">
-        <v>2.085116290718245</v>
+        <v>2.285192005425275</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.018469532220042</v>
+        <v>3.166344520037633</v>
       </c>
       <c r="C13">
-        <v>6.382126741467673</v>
+        <v>2.038192909141636</v>
       </c>
       <c r="D13">
-        <v>2.126220276822093</v>
+        <v>2.09289029943999</v>
       </c>
       <c r="E13">
-        <v>2.246345398073575</v>
+        <v>5.328949549789762</v>
       </c>
       <c r="F13">
-        <v>2.092955516507246</v>
+        <v>2.311133490542518</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.020176221798242</v>
+        <v>3.25912640971928</v>
       </c>
       <c r="C14">
-        <v>6.688742949115522</v>
+        <v>2.041522090092307</v>
       </c>
       <c r="D14">
-        <v>2.136676082400994</v>
+        <v>2.101363821487334</v>
       </c>
       <c r="E14">
-        <v>2.267349191796525</v>
+        <v>5.579119225996603</v>
       </c>
       <c r="F14">
-        <v>2.100811342094017</v>
+        <v>2.337077297264459</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.021907725165664</v>
+        <v>3.351968444080093</v>
       </c>
       <c r="C15">
-        <v>6.986670087104245</v>
+        <v>2.044872823439465</v>
       </c>
       <c r="D15">
-        <v>2.147120864511359</v>
+        <v>2.109959989052983</v>
       </c>
       <c r="E15">
-        <v>2.288433658451888</v>
+        <v>5.826011854906837</v>
       </c>
       <c r="F15">
-        <v>2.108683701624208</v>
+        <v>2.363023388787044</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.02366384276151</v>
+        <v>3.445044911798722</v>
       </c>
       <c r="C16">
-        <v>7.276065745554268</v>
+        <v>2.048244903929322</v>
       </c>
       <c r="D16">
-        <v>2.157554348142877</v>
+        <v>2.118681111520671</v>
       </c>
       <c r="E16">
-        <v>2.309600987357465</v>
+        <v>6.069503190908106</v>
       </c>
       <c r="F16">
-        <v>2.116572529852899</v>
+        <v>2.388971728705824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.025444376726611</v>
+        <v>3.53849829045245</v>
       </c>
       <c r="C17">
-        <v>7.557097548822322</v>
+        <v>2.05163812724158</v>
       </c>
       <c r="D17">
-        <v>2.167976263696046</v>
+        <v>2.127529550066422</v>
       </c>
       <c r="E17">
-        <v>2.330853547530366</v>
+        <v>6.309424182633332</v>
       </c>
       <c r="F17">
-        <v>2.124477762095319</v>
+        <v>2.414922280961359</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.02724913083689</v>
+        <v>3.632423382322429</v>
       </c>
       <c r="C18">
-        <v>7.829940447805239</v>
+        <v>2.055052289970451</v>
       </c>
       <c r="D18">
-        <v>2.178386346648167</v>
+        <v>2.13650771827831</v>
       </c>
       <c r="E18">
-        <v>2.352193898600057</v>
+        <v>6.545590318135962</v>
       </c>
       <c r="F18">
-        <v>2.132399334179218</v>
+        <v>2.440875009885343</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.02907791043812</v>
+        <v>3.726855548805002</v>
       </c>
       <c r="C19">
-        <v>8.094774531113845</v>
+        <v>2.058487189529156</v>
       </c>
       <c r="D19">
-        <v>2.188784337238725</v>
+        <v>2.145618083476011</v>
       </c>
       <c r="E19">
-        <v>2.373624802359152</v>
+        <v>6.777824073873382</v>
       </c>
       <c r="F19">
-        <v>2.140337182398885</v>
+        <v>2.466829880036359</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.030930522381855</v>
+        <v>3.821766197004168</v>
       </c>
       <c r="C20">
-        <v>8.351783261938682</v>
+        <v>2.06194262406192</v>
       </c>
       <c r="D20">
-        <v>2.199169980173446</v>
+        <v>2.154863166711166</v>
       </c>
       <c r="E20">
-        <v>2.39514923498019</v>
+        <v>7.005969349283155</v>
       </c>
       <c r="F20">
-        <v>2.148291243470779</v>
+        <v>2.492786856215673</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.032806774962624</v>
+        <v>3.917066243381087</v>
       </c>
       <c r="C21">
-        <v>8.601152060031774</v>
+        <v>2.06541839262756</v>
       </c>
       <c r="D21">
-        <v>2.209543024346273</v>
+        <v>2.164245545112744</v>
       </c>
       <c r="E21">
-        <v>2.416770399935096</v>
+        <v>7.229898851932698</v>
       </c>
       <c r="F21">
-        <v>2.156261454490732</v>
+        <v>2.518745903407444</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.03470647785641</v>
+        <v>4.012618005801227</v>
       </c>
       <c r="C22">
-        <v>8.843067161840921</v>
+        <v>2.068914294983811</v>
       </c>
       <c r="D22">
-        <v>2.219903222577997</v>
+        <v>2.173767850177704</v>
       </c>
       <c r="E22">
-        <v>2.43849174164798</v>
+        <v>7.449516307564878</v>
       </c>
       <c r="F22">
-        <v>2.164247752892709</v>
+        <v>2.544706986762634</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.036629442060377</v>
+        <v>4.10825152501546</v>
       </c>
       <c r="C23">
-        <v>9.077714704340654</v>
+        <v>2.072430131388588</v>
       </c>
       <c r="D23">
-        <v>2.230250331371277</v>
+        <v>2.183432772799377</v>
       </c>
       <c r="E23">
-        <v>2.460316959921053</v>
+        <v>7.664755366769544</v>
       </c>
       <c r="F23">
-        <v>2.172250076409086</v>
+        <v>2.57067007159137</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.038575479833966</v>
+        <v>4.203781597471006</v>
       </c>
       <c r="C24">
-        <v>9.305279988795824</v>
+        <v>2.07596570324148</v>
       </c>
       <c r="D24">
-        <v>2.240584110680945</v>
+        <v>2.193243059661512</v>
       </c>
       <c r="E24">
-        <v>2.482250025163798</v>
+        <v>7.875576752302844</v>
       </c>
       <c r="F24">
-        <v>2.180268363032419</v>
+        <v>2.596635123317918</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.040544404641234</v>
+        <v>4.299023177268682</v>
       </c>
       <c r="C25">
-        <v>9.525946889495764</v>
+        <v>2.079520812332684</v>
       </c>
       <c r="D25">
-        <v>2.250904323699078</v>
+        <v>2.203201518112363</v>
       </c>
       <c r="E25">
-        <v>2.504295194460923</v>
+        <v>8.081964634817602</v>
       </c>
       <c r="F25">
-        <v>2.188302550978685</v>
+        <v>2.622602107458817</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.042536031094609</v>
+        <v>4.393802676146748</v>
       </c>
       <c r="C26">
-        <v>9.739897379585553</v>
+        <v>2.083095260961983</v>
       </c>
       <c r="D26">
-        <v>2.26121073665403</v>
+        <v>2.213311014333609</v>
       </c>
       <c r="E26">
-        <v>2.526457028514713</v>
+        <v>8.28392289464767</v>
       </c>
       <c r="F26">
-        <v>2.196352578651942</v>
+        <v>2.648570989588676</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.044550174899948</v>
+        <v>4.487964921792417</v>
       </c>
       <c r="C27">
-        <v>9.947311151786522</v>
+        <v>2.086688852115013</v>
       </c>
       <c r="D27">
-        <v>2.27150311862281</v>
+        <v>2.223574474997872</v>
       </c>
       <c r="E27">
-        <v>2.548740409489093</v>
+        <v>8.481471672962908</v>
       </c>
       <c r="F27">
-        <v>2.204418384610402</v>
+        <v>2.674541735321327</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.046586652802956</v>
+        <v>4.581376355863493</v>
       </c>
       <c r="C28">
-        <v>10.14836531626804</v>
+        <v>2.090301389208639</v>
       </c>
       <c r="D28">
-        <v>2.281781241356141</v>
+        <v>2.233994888382036</v>
       </c>
       <c r="E28">
-        <v>2.571150559796242</v>
+        <v>8.674644290270924</v>
       </c>
       <c r="F28">
-        <v>2.212499907533869</v>
+        <v>2.700514310304237</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.048645282537016</v>
+        <v>4.673925458602989</v>
       </c>
       <c r="C29">
-        <v>10.34323416148839</v>
+        <v>2.093932676224123</v>
       </c>
       <c r="D29">
-        <v>2.292044879115587</v>
+        <v>2.244575303427225</v>
       </c>
       <c r="E29">
-        <v>2.593693061839669</v>
+        <v>8.863484620295958</v>
       </c>
       <c r="F29">
-        <v>2.220597086192525</v>
+        <v>2.726488680154306</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.050725882772336</v>
+        <v>4.765521452271019</v>
       </c>
       <c r="C30">
-        <v>10.53208896661394</v>
+        <v>2.097582517686279</v>
       </c>
       <c r="D30">
-        <v>2.302293808522169</v>
+        <v>2.255318832231561</v>
       </c>
       <c r="E30">
-        <v>2.616373878743713</v>
+        <v>9.048044893345512</v>
       </c>
       <c r="F30">
-        <v>2.228709859417036</v>
+        <v>2.752464810479252</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.052828273066547</v>
+        <v>4.856092126872871</v>
       </c>
       <c r="C31">
-        <v>10.71509785632658</v>
+        <v>2.101250718583208</v>
       </c>
       <c r="D31">
-        <v>2.312527808415908</v>
+        <v>2.266228648935642</v>
       </c>
       <c r="E31">
-        <v>2.63919937608092</v>
+        <v>9.228383849864066</v>
       </c>
       <c r="F31">
-        <v>2.236838166069965</v>
+        <v>2.778442666867114</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.054952273816646</v>
+        <v>4.945581145013538</v>
       </c>
       <c r="C32">
-        <v>10.89242569060272</v>
+        <v>2.104937084446483</v>
       </c>
       <c r="D32">
-        <v>2.322746659725715</v>
+        <v>2.277307991435153</v>
       </c>
       <c r="E32">
-        <v>2.662176344608334</v>
+        <v>9.404565274229579</v>
       </c>
       <c r="F32">
-        <v>2.244981945018303</v>
+        <v>2.804422214853068</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.057097706212346</v>
+        <v>5.033945613169064</v>
       </c>
       <c r="C33">
-        <v>11.06423398343059</v>
+        <v>2.108641421223519</v>
       </c>
       <c r="D33">
-        <v>2.332950145349161</v>
+        <v>2.288560160476818</v>
       </c>
       <c r="E33">
-        <v>2.685312024007216</v>
+        <v>9.576656802942415</v>
       </c>
       <c r="F33">
-        <v>2.253141135107348</v>
+        <v>2.830403419927722</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.059264392190849</v>
+        <v>5.121153663365231</v>
       </c>
       <c r="C34">
-        <v>11.23068084554448</v>
+        <v>2.112363535296771</v>
       </c>
       <c r="D34">
-        <v>2.343138050041564</v>
+        <v>2.299988521948904</v>
       </c>
       <c r="E34">
-        <v>2.708614127605924</v>
+        <v>9.744728944040286</v>
       </c>
       <c r="F34">
-        <v>2.261315675135873</v>
+        <v>2.856386247505404</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.061452154392958</v>
+        <v>5.207182507378942</v>
       </c>
       <c r="C35">
-        <v>11.391920947121</v>
+        <v>2.116103233479605</v>
       </c>
       <c r="D35">
-        <v>2.353310160313968</v>
+        <v>2.311596506634163</v>
       </c>
       <c r="E35">
-        <v>2.732090868054669</v>
+        <v>9.90885426688576</v>
       </c>
       <c r="F35">
-        <v>2.269505503832289</v>
+        <v>2.882370662927044</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.063660816120662</v>
+        <v>5.292016658936283</v>
       </c>
       <c r="C36">
-        <v>11.54810549719711</v>
+        <v>2.119860322957654</v>
       </c>
       <c r="D36">
-        <v>2.363466264339527</v>
+        <v>2.323387606389807</v>
       </c>
       <c r="E36">
-        <v>2.755750983890555</v>
+        <v>10.06910676910713</v>
       </c>
       <c r="F36">
-        <v>2.277710559831984</v>
+        <v>2.908356631435736</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.06589020129604</v>
+        <v>5.375646558745316</v>
       </c>
       <c r="C37">
-        <v>11.69938223696822</v>
+        <v>2.123634611309118</v>
       </c>
       <c r="D37">
-        <v>2.373606151867844</v>
+        <v>2.335365380560649</v>
       </c>
       <c r="E37">
-        <v>2.779603766917691</v>
+        <v>10.22556136170259</v>
       </c>
       <c r="F37">
-        <v>2.285930781655772</v>
+        <v>2.934344118173715</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.068140134421612</v>
+        <v>5.458067384745751</v>
       </c>
       <c r="C38">
-        <v>11.84589544476227</v>
+        <v>2.127425906470668</v>
       </c>
       <c r="D38">
-        <v>2.383729614146874</v>
+        <v>2.347533455167973</v>
       </c>
       <c r="E38">
-        <v>2.803659090275381</v>
+        <v>10.37829345753632</v>
       </c>
       <c r="F38">
-        <v>2.294166107689473</v>
+        <v>2.960333088177463</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.070410440542064</v>
+        <v>5.53927813065374</v>
       </c>
       <c r="C39">
-        <v>11.98778595077525</v>
+        <v>2.131234016737506</v>
       </c>
       <c r="D39">
-        <v>2.393836443851941</v>
+        <v>2.359895516385138</v>
       </c>
       <c r="E39">
-        <v>2.827927437043003</v>
+        <v>10.52737862814601</v>
       </c>
       <c r="F39">
-        <v>2.302416476164507</v>
+        <v>2.986323506362695</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.072700945207316</v>
+        <v>5.619280825696323</v>
       </c>
       <c r="C40">
-        <v>12.12519115998478</v>
+        <v>2.135058750760841</v>
       </c>
       <c r="D40">
-        <v>2.403926435021532</v>
+        <v>2.372455311061039</v>
       </c>
       <c r="E40">
-        <v>2.852419929175182</v>
+        <v>10.67289232438795</v>
       </c>
       <c r="F40">
-        <v>2.310681825139477</v>
+        <v>3.012315337528122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.075011474437038</v>
+        <v>5.69807994699976</v>
       </c>
       <c r="C41">
-        <v>12.25824508191535</v>
+        <v>2.138899917526169</v>
       </c>
       <c r="D41">
-        <v>2.413999382999456</v>
+        <v>2.385216659173724</v>
       </c>
       <c r="E41">
-        <v>2.877148356504498</v>
+        <v>10.81490963264747</v>
       </c>
       <c r="F41">
-        <v>2.318962092482803</v>
+        <v>3.038308546347437</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.077341854686439</v>
+        <v>5.77568197089276</v>
       </c>
       <c r="C42">
-        <v>12.38707836614478</v>
+        <v>2.142757326363648</v>
       </c>
       <c r="D42">
-        <v>2.424055084383031</v>
+        <v>2.398183440442542</v>
       </c>
       <c r="E42">
-        <v>2.90212520547695</v>
+        <v>10.95350510269691</v>
       </c>
       <c r="F42">
-        <v>2.327257215856299</v>
+        <v>3.064303097366806</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.079691912813499</v>
+        <v>5.852094934193967</v>
       </c>
       <c r="C43">
-        <v>12.51181834254587</v>
+        <v>2.146630786924884</v>
       </c>
       <c r="D43">
-        <v>2.434093336976959</v>
+        <v>2.411359583663315</v>
       </c>
       <c r="E43">
-        <v>2.927363687206119</v>
+        <v>11.08875265507354</v>
       </c>
       <c r="F43">
-        <v>2.3355671326997</v>
+        <v>3.090298954995622</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.082061476047492</v>
+        <v>5.927328084101054</v>
       </c>
       <c r="C44">
-        <v>12.63258906557378</v>
+        <v>2.150520109186865</v>
       </c>
       <c r="D44">
-        <v>2.444113939752553</v>
+        <v>2.424749095811284</v>
       </c>
       <c r="E44">
-        <v>2.952877764334503</v>
+        <v>11.22072543173752</v>
       </c>
       <c r="F44">
-        <v>2.343891780216071</v>
+        <v>3.116296083505698</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.084450371958843</v>
+        <v>6.001391654184879</v>
       </c>
       <c r="C45">
-        <v>12.749511361831</v>
+        <v>2.154425103445555</v>
       </c>
       <c r="D45">
-        <v>2.454116692812022</v>
+        <v>2.43835604086857</v>
       </c>
       <c r="E45">
-        <v>2.978682176085762</v>
+        <v>11.34949569788035</v>
       </c>
       <c r="F45">
-        <v>2.352231095358124</v>
+        <v>3.142294447029837</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.086858428430349</v>
+        <v>6.074296688254519</v>
       </c>
       <c r="C46">
-        <v>12.86270288030694</v>
+        <v>2.158345580306989</v>
       </c>
       <c r="D46">
-        <v>2.464101397357502</v>
+        <v>2.452184525078824</v>
       </c>
       <c r="E46">
-        <v>3.004792460743793</v>
+        <v>11.47513476062016</v>
       </c>
       <c r="F46">
-        <v>2.360585014815405</v>
+        <v>3.168294009554727</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.089285473629637</v>
+        <v>6.146054879628222</v>
       </c>
       <c r="C47">
-        <v>12.97227814487174</v>
+        <v>2.162281350673763</v>
       </c>
       <c r="D47">
-        <v>2.474067855664552</v>
+        <v>2.466238726168174</v>
       </c>
       <c r="E47">
-        <v>3.031224974671711</v>
+        <v>11.59771291147556</v>
       </c>
       <c r="F47">
-        <v>2.368953475002295</v>
+        <v>3.194294734923843</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.091731335982985</v>
+        <v>6.216678431193358</v>
       </c>
       <c r="C48">
-        <v>13.07834860852586</v>
+        <v>2.166232225742125</v>
       </c>
       <c r="D48">
-        <v>2.484015871059856</v>
+        <v>2.4805228779466</v>
       </c>
       <c r="E48">
-        <v>3.057996906831848</v>
+        <v>11.7172993815997</v>
       </c>
       <c r="F48">
-        <v>2.377336412046839</v>
+        <v>3.220296586831691</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.094195844150363</v>
+        <v>6.286179926637888</v>
       </c>
       <c r="C49">
-        <v>13.18102270907473</v>
+        <v>2.170198017111765</v>
       </c>
       <c r="D49">
-        <v>2.493945247902842</v>
+        <v>2.495041256397433</v>
       </c>
       <c r="E49">
-        <v>3.085126287389561</v>
+        <v>11.83396230607817</v>
       </c>
       <c r="F49">
-        <v>2.385733761780309</v>
+        <v>3.246299528826762</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.096678827001759</v>
+        <v>6.354572273690005</v>
       </c>
       <c r="C50">
-        <v>13.2804059258906</v>
+        <v>2.174178536559169</v>
       </c>
       <c r="D50">
-        <v>2.503855791571013</v>
+        <v>2.509798185724586</v>
       </c>
       <c r="E50">
-        <v>3.112631989321387</v>
+        <v>11.94776869510743</v>
       </c>
       <c r="F50">
-        <v>2.394145459727591</v>
+        <v>3.272303524308487</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.099180113594754</v>
+        <v>6.421868528846947</v>
       </c>
       <c r="C51">
-        <v>13.37660083749174</v>
+        <v>2.178173596179388</v>
       </c>
       <c r="D51">
-        <v>2.513747308448715</v>
+        <v>2.524798052201537</v>
       </c>
       <c r="E51">
-        <v>3.140533720968912</v>
+        <v>12.05878442091734</v>
       </c>
       <c r="F51">
-        <v>2.402571441098254</v>
+        <v>3.298308536528032</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.101699533153274</v>
+        <v>6.488082022890828</v>
       </c>
       <c r="C52">
-        <v>13.46970717970324</v>
+        <v>2.182183008400243</v>
       </c>
       <c r="D52">
-        <v>2.523619605919138</v>
+        <v>2.540045279479638</v>
       </c>
       <c r="E52">
-        <v>3.16885200788806</v>
+        <v>12.16707419624059</v>
       </c>
       <c r="F52">
-        <v>2.411011640778363</v>
+        <v>3.324314528589118</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.104236915047621</v>
+        <v>6.55322607061884</v>
       </c>
       <c r="C53">
-        <v>13.55982190417471</v>
+        <v>2.186206586094074</v>
       </c>
       <c r="D53">
-        <v>2.53347249235933</v>
+        <v>2.555544313670009</v>
       </c>
       <c r="E53">
-        <v>3.197608161831006</v>
+        <v>12.27270156112431</v>
       </c>
       <c r="F53">
-        <v>2.419465993322949</v>
+        <v>3.350321463446105</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.106792088775606</v>
+        <v>6.617314202347724</v>
       </c>
       <c r="C54">
-        <v>13.64703923708715</v>
+        <v>2.19024414221974</v>
       </c>
       <c r="D54">
-        <v>2.543305777138017</v>
+        <v>2.571299666003697</v>
       </c>
       <c r="E54">
-        <v>3.22682423455827</v>
+        <v>12.3757288808807</v>
       </c>
       <c r="F54">
-        <v>2.427934432949144</v>
+        <v>3.376329303907511</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.109364883944909</v>
+        <v>6.680359920391314</v>
       </c>
       <c r="C55">
-        <v>13.73145073792187</v>
+        <v>2.194295490100902</v>
       </c>
       <c r="D55">
-        <v>2.553119270616034</v>
+        <v>2.587315877208183</v>
       </c>
       <c r="E55">
-        <v>3.2565229539967</v>
+        <v>12.47621733221563</v>
       </c>
       <c r="F55">
-        <v>2.436416893529973</v>
+        <v>3.402338012634014</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.11195513025655</v>
+        <v>6.742376806600934</v>
       </c>
       <c r="C56">
-        <v>13.81314535809734</v>
+        <v>2.198360443502045</v>
       </c>
       <c r="D56">
-        <v>2.562912784149187</v>
+        <v>2.603597484362459</v>
       </c>
       <c r="E56">
-        <v>3.286727640180362</v>
+        <v>12.57422692480304</v>
       </c>
       <c r="F56">
-        <v>2.44491330858875</v>
+        <v>3.42834755214221</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.114562657489473</v>
+        <v>6.803378420773317</v>
       </c>
       <c r="C57">
-        <v>13.89220949937369</v>
+        <v>2.202438816514655</v>
       </c>
       <c r="D57">
-        <v>2.572686130093361</v>
+        <v>2.620149084894551</v>
       </c>
       <c r="E57">
-        <v>3.317462098252907</v>
+        <v>12.66981648921415</v>
       </c>
       <c r="F57">
-        <v>2.453423611294079</v>
+        <v>3.454357884803729</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.117187295486274</v>
+        <v>6.863378302641921</v>
       </c>
       <c r="C58">
-        <v>13.96872707195246</v>
+        <v>2.206530423422665</v>
       </c>
       <c r="D58">
-        <v>2.582439121811706</v>
+        <v>2.636975290995294</v>
       </c>
       <c r="E58">
-        <v>3.348750486076472</v>
+        <v>12.76304370854049</v>
       </c>
       <c r="F58">
-        <v>2.461947734455402</v>
+        <v>3.480368972848758</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.119828874139931</v>
+        <v>6.922389956494169</v>
       </c>
       <c r="C59">
-        <v>14.04277955214584</v>
+        <v>2.210635078892082</v>
       </c>
       <c r="D59">
-        <v>2.592171573683743</v>
+        <v>2.654080708048657</v>
       </c>
       <c r="E59">
-        <v>3.380617153972369</v>
+        <v>12.85396510036285</v>
       </c>
       <c r="F59">
-        <v>2.470485610519119</v>
+        <v>3.506380778366576</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.122487223381661</v>
+        <v>6.98042681687941</v>
       </c>
       <c r="C60">
-        <v>14.1144460395451</v>
+        <v>2.214752598112104</v>
       </c>
       <c r="D60">
-        <v>2.601883301116253</v>
+        <v>2.67146995413089</v>
       </c>
       <c r="E60">
-        <v>3.413086454755001</v>
+        <v>12.94263604597672</v>
       </c>
       <c r="F60">
-        <v>2.479037171565245</v>
+        <v>3.532393263308115</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.125162173169762</v>
+        <v>7.037502268577767</v>
       </c>
       <c r="C61">
-        <v>14.18380331363977</v>
+        <v>2.218882796465363</v>
       </c>
       <c r="D61">
-        <v>2.611574120555765</v>
+        <v>2.689147668544375</v>
       </c>
       <c r="E61">
-        <v>3.446182522746245</v>
+        <v>13.0291107840018</v>
       </c>
       <c r="F61">
-        <v>2.487602349304561</v>
+        <v>3.558406389488366</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.12785355347946</v>
+        <v>7.093629608486514</v>
       </c>
       <c r="C62">
-        <v>14.25092588978659</v>
+        <v>2.223025489718196</v>
       </c>
       <c r="D62">
-        <v>2.621243849502457</v>
+        <v>2.707118471258887</v>
       </c>
       <c r="E62">
-        <v>3.479929021346326</v>
+        <v>13.11344242658569</v>
       </c>
       <c r="F62">
-        <v>2.496181075076273</v>
+        <v>3.584420118587652</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.130561194293772</v>
+        <v>7.148822065758506</v>
       </c>
       <c r="C63">
-        <v>14.3158860745361</v>
+        <v>2.227180494035691</v>
       </c>
       <c r="D63">
-        <v>2.630892306525606</v>
+        <v>2.725386946289154</v>
       </c>
       <c r="E63">
-        <v>3.514348860115521</v>
+        <v>13.19568299135036</v>
       </c>
       <c r="F63">
-        <v>2.504773279846114</v>
+        <v>3.610434412155455</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.133284925595268</v>
+        <v>7.203092776779283</v>
       </c>
       <c r="C64">
-        <v>14.37875402019863</v>
+        <v>2.231347626072802</v>
       </c>
       <c r="D64">
-        <v>2.6405193112801</v>
+        <v>2.743957697563292</v>
       </c>
       <c r="E64">
-        <v>3.549463883569151</v>
+        <v>13.27588337982486</v>
       </c>
       <c r="F64">
-        <v>2.513378894204933</v>
+        <v>3.636449231611685</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.136024577358828</v>
+        <v>7.256454786695103</v>
       </c>
       <c r="C65">
-        <v>14.43959777868621</v>
+        <v>2.235526702749654</v>
       </c>
       <c r="D65">
-        <v>2.650124684524088</v>
+        <v>2.762835292993435</v>
       </c>
       <c r="E65">
-        <v>3.585294535952925</v>
+        <v>13.3540933884743</v>
       </c>
       <c r="F65">
-        <v>2.521997848367696</v>
+        <v>3.662464538251051</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.13877997954525</v>
+        <v>7.30892104016528</v>
       </c>
       <c r="C66">
-        <v>14.49848335454544</v>
+        <v>2.239717541433667</v>
       </c>
       <c r="D66">
-        <v>2.65970824813762</v>
+        <v>2.78202421889017</v>
       </c>
       <c r="E66">
-        <v>3.621859508050308</v>
+        <v>13.43036178622091</v>
       </c>
       <c r="F66">
-        <v>2.530630072172915</v>
+        <v>3.688480293242511</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.141550962095776</v>
+        <v>7.360504376789862</v>
       </c>
       <c r="C67">
-        <v>14.55547475716542</v>
+        <v>2.243919959957912</v>
       </c>
       <c r="D67">
-        <v>2.669269825142241</v>
+        <v>2.801528969467114</v>
       </c>
       <c r="E67">
-        <v>3.65917537431914</v>
+        <v>13.504736287819</v>
       </c>
       <c r="F67">
-        <v>2.539275495082467</v>
+        <v>3.714496457635581</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.14433735492746</v>
+        <v>7.411217528911595</v>
       </c>
       <c r="C68">
-        <v>14.61063405217299</v>
+        <v>2.24813377662089</v>
       </c>
       <c r="D68">
-        <v>2.678809239721286</v>
+        <v>2.821353974566938</v>
       </c>
       <c r="E68">
-        <v>3.697256230693037</v>
+        <v>13.57726349140634</v>
       </c>
       <c r="F68">
-        <v>2.547934046181796</v>
+        <v>3.740512992361452</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.147138987929354</v>
+        <v>7.461073115293961</v>
       </c>
       <c r="C69">
-        <v>14.66402141191917</v>
+        <v>2.252358810087744</v>
       </c>
       <c r="D69">
-        <v>2.688326317240921</v>
+        <v>2.841503569952812</v>
       </c>
       <c r="E69">
-        <v>3.736113345260487</v>
+        <v>13.64798901142033</v>
       </c>
       <c r="F69">
-        <v>2.556605654180482</v>
+        <v>3.766529858232655</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.149955690959535</v>
+        <v>7.510083642117437</v>
       </c>
       <c r="C70">
-        <v>14.71569516514582</v>
+        <v>2.256594879509686</v>
       </c>
       <c r="D70">
-        <v>2.697820884271763</v>
+        <v>2.861982034002325</v>
       </c>
       <c r="E70">
-        <v>3.775754835344222</v>
+        <v>13.71695754536764</v>
       </c>
       <c r="F70">
-        <v>2.565290247413161</v>
+        <v>3.792547015956937</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.152787293842865</v>
+        <v>7.558261499211561</v>
       </c>
       <c r="C71">
-        <v>14.7657118457101</v>
+        <v>2.260841804592027</v>
       </c>
       <c r="D71">
-        <v>2.707292768611023</v>
+        <v>2.882793576439253</v>
       </c>
       <c r="E71">
-        <v>3.816185385674937</v>
+        <v>13.78421265484472</v>
       </c>
       <c r="F71">
-        <v>2.573987753840778</v>
+        <v>3.818564426127218</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.155633626369541</v>
+        <v>7.605618957849368</v>
       </c>
       <c r="C72">
-        <v>14.81412624044097</v>
+        <v>2.265099405476725</v>
       </c>
       <c r="D72">
-        <v>2.716741799305066</v>
+        <v>2.903942293758456</v>
       </c>
       <c r="E72">
-        <v>3.857406021153342</v>
+        <v>13.84979696289374</v>
       </c>
       <c r="F72">
-        <v>2.582698101052148</v>
+        <v>3.844582049231073</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.158494518294362</v>
+        <v>7.652168170939283</v>
       </c>
       <c r="C73">
-        <v>14.86099143608804</v>
+        <v>2.269367502795602</v>
       </c>
       <c r="D73">
-        <v>2.726167806672348</v>
+        <v>2.925432158798015</v>
       </c>
       <c r="E73">
-        <v>3.899413947849289</v>
+        <v>13.91375223607481</v>
       </c>
       <c r="F73">
-        <v>2.591421216265823</v>
+        <v>3.870599845658119</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.161369799336688</v>
+        <v>7.697921169307547</v>
       </c>
       <c r="C74">
-        <v>14.90635886533275</v>
+        <v>2.27364591771684</v>
       </c>
       <c r="D74">
-        <v>2.73557062232662</v>
+        <v>2.947267063165095</v>
       </c>
       <c r="E74">
-        <v>3.942202472597061</v>
+        <v>13.97611918784452</v>
       </c>
       <c r="F74">
-        <v>2.600157026332256</v>
+        <v>3.896617775694002</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.164259299181104</v>
+        <v>7.742889862075576</v>
       </c>
       <c r="C75">
-        <v>14.9502783519323</v>
+        <v>2.277934472072242</v>
       </c>
       <c r="D75">
-        <v>2.744950079200331</v>
+        <v>2.969450758908122</v>
       </c>
       <c r="E75">
-        <v>3.985761008661238</v>
+        <v>14.03693763910904</v>
       </c>
       <c r="F75">
-        <v>2.608905457736229</v>
+        <v>3.922635799529966</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.167162847478698</v>
+        <v>7.787086034476562</v>
       </c>
       <c r="C76">
-        <v>14.99279815489158</v>
+        <v>2.282232988107355</v>
       </c>
       <c r="D76">
-        <v>2.754306011568211</v>
+        <v>2.991986823733376</v>
       </c>
       <c r="E76">
-        <v>4.030075170764949</v>
+        <v>14.09624651760398</v>
       </c>
       <c r="F76">
-        <v>2.617666436599551</v>
+        <v>3.948653877265059</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.170080273849007</v>
+        <v>7.830521347508047</v>
       </c>
       <c r="C77">
-        <v>15.03396501177593</v>
+        <v>2.286541288685557</v>
       </c>
       <c r="D77">
-        <v>2.763638255070918</v>
+        <v>3.01487872403682</v>
       </c>
       <c r="E77">
-        <v>4.075126958202078</v>
+        <v>14.15408385065784</v>
       </c>
       <c r="F77">
-        <v>2.626439888683978</v>
+        <v>3.974671968907525</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.173011407882543</v>
+        <v>7.873207337456305</v>
       </c>
       <c r="C78">
-        <v>15.07382418107246</v>
+        <v>2.290859197290679</v>
       </c>
       <c r="D78">
-        <v>2.772946646738715</v>
+        <v>3.038129752724548</v>
       </c>
       <c r="E78">
-        <v>4.120895020041222</v>
+        <v>14.21048678946147</v>
       </c>
       <c r="F78">
-        <v>2.635225739394399</v>
+        <v>4.000690034379931</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.175956079143893</v>
+        <v>7.915155414661759</v>
       </c>
       <c r="C79">
-        <v>15.1124194836547</v>
+        <v>2.295186538066717</v>
       </c>
       <c r="D79">
-        <v>2.782231025015118</v>
+        <v>3.06174300607605</v>
       </c>
       <c r="E79">
-        <v>4.16735499212869</v>
+        <v>14.26549161610453</v>
       </c>
       <c r="F79">
-        <v>2.644023913782223</v>
+        <v>4.026708033521494</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.178914117175404</v>
+        <v>7.95637686453191</v>
       </c>
       <c r="C80">
-        <v>15.14979334336207</v>
+        <v>2.299523135706424</v>
       </c>
       <c r="D80">
-        <v>2.791491229780473</v>
+        <v>3.085721407498363</v>
       </c>
       <c r="E80">
-        <v>4.214479892063168</v>
+        <v>14.31913376205331</v>
       </c>
       <c r="F80">
-        <v>2.65283433654898</v>
+        <v>4.052725926091318</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.181885351501351</v>
+        <v>7.996882845800493</v>
       </c>
       <c r="C81">
-        <v>15.18598682663927</v>
+        <v>2.303868815578268</v>
       </c>
       <c r="D81">
-        <v>2.800727102375395</v>
+        <v>3.110067682920487</v>
       </c>
       <c r="E81">
-        <v>4.26224055578405</v>
+        <v>14.37144784359483</v>
       </c>
       <c r="F81">
-        <v>2.661656932050121</v>
+        <v>4.078743671771791</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.184869611632661</v>
+        <v>8.03668439173272</v>
       </c>
       <c r="C82">
-        <v>15.22103968134048</v>
+        <v>2.308223403765322</v>
       </c>
       <c r="D82">
-        <v>2.809938485624034</v>
+        <v>3.134784340675637</v>
       </c>
       <c r="E82">
-        <v>4.310606098213267</v>
+        <v>14.4224676567592</v>
       </c>
       <c r="F82">
-        <v>2.670491624298997</v>
+        <v>4.10476123017174</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.18786672707208</v>
+        <v>8.075792409067425</v>
       </c>
       <c r="C83">
-        <v>15.25499037459478</v>
+        <v>2.312586727023191</v>
       </c>
       <c r="D83">
-        <v>2.819125223857132</v>
+        <v>3.159873663326857</v>
       </c>
       <c r="E83">
-        <v>4.359544380439447</v>
+        <v>14.47222619646051</v>
       </c>
       <c r="F83">
-        <v>2.67933833697102</v>
+        <v>4.13077856083006</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.190876527319825</v>
+        <v>8.114217678541547</v>
       </c>
       <c r="C84">
-        <v>15.28787612983713</v>
+        <v>2.316958612790311</v>
       </c>
       <c r="D84">
-        <v>2.828287162934811</v>
+        <v>3.185337703650795</v>
       </c>
       <c r="E84">
-        <v>4.409022467129534</v>
+        <v>14.52075567854825</v>
       </c>
       <c r="F84">
-        <v>2.688196993407986</v>
+        <v>4.156795623219814</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.193898841879667</v>
+        <v>8.151970854838137</v>
       </c>
       <c r="C85">
-        <v>15.3197329629588</v>
+        <v>2.321338889242717</v>
       </c>
       <c r="D85">
-        <v>2.837424150269079</v>
+        <v>3.211178267740826</v>
       </c>
       <c r="E85">
-        <v>4.459007060025912</v>
+        <v>14.56808755066513</v>
       </c>
       <c r="F85">
-        <v>2.697067516622556</v>
+        <v>4.182812376749562</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.196933500265414</v>
+        <v>8.189062466521419</v>
       </c>
       <c r="C86">
-        <v>15.35059571759043</v>
+        <v>2.325727385370794</v>
       </c>
       <c r="D86">
-        <v>2.846536034845984</v>
+        <v>3.23739691584586</v>
       </c>
       <c r="E86">
-        <v>4.509464896143478</v>
+        <v>14.61425249685569</v>
       </c>
       <c r="F86">
-        <v>2.705949829302868</v>
+        <v>4.208828780767898</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.199980332007813</v>
+        <v>8.225502916756755</v>
       </c>
       <c r="C87">
-        <v>15.38049809957488</v>
+        <v>2.33012393086246</v>
       </c>
       <c r="D87">
-        <v>2.855622667247428</v>
+        <v>3.263994927543891</v>
       </c>
       <c r="E87">
-        <v>4.560363102399274</v>
+        <v>14.65928047899524</v>
       </c>
       <c r="F87">
-        <v>2.714843853817294</v>
+        <v>4.234844794566476</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.2030391666618</v>
+        <v>8.261302482993456</v>
       </c>
       <c r="C88">
-        <v>15.40947271055499</v>
+        <v>2.334528356215797</v>
       </c>
       <c r="D88">
-        <v>2.864683899672561</v>
+        <v>3.290973307349041</v>
       </c>
       <c r="E88">
-        <v>4.611669501529546</v>
+        <v>14.70320073488427</v>
       </c>
       <c r="F88">
-        <v>2.723749512219322</v>
+        <v>4.260860377383397</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2.20610983381411</v>
+        <v>8.296471317932145</v>
       </c>
       <c r="C89">
-        <v>15.43755108079621</v>
+        <v>2.338940492750149</v>
       </c>
       <c r="D89">
-        <v>2.873719585958767</v>
+        <v>3.318332812058415</v>
       </c>
       <c r="E89">
-        <v>4.663352867025035</v>
+        <v>14.74604179845097</v>
       </c>
       <c r="F89">
-        <v>2.732666726252548</v>
+        <v>4.286875488405446</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.209192163091218</v>
+        <v>8.331019449426515</v>
       </c>
       <c r="C90">
-        <v>15.46476370114808</v>
+        <v>2.343360172656418</v>
       </c>
       <c r="D90">
-        <v>2.882729581602188</v>
+        <v>3.34607387110417</v>
       </c>
       <c r="E90">
-        <v>4.715383127330553</v>
+        <v>14.78783151433096</v>
       </c>
       <c r="F90">
-        <v>2.741595417355783</v>
+        <v>4.312890086772643</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.212285984167575</v>
+        <v>8.364956781232932</v>
       </c>
       <c r="C91">
-        <v>15.49114005423343</v>
+        <v>2.347787228924373</v>
       </c>
       <c r="D91">
-        <v>2.891713743777768</v>
+        <v>3.374196614892563</v>
       </c>
       <c r="E91">
-        <v>4.76773152156683</v>
+        <v>14.82859698508185</v>
       </c>
       <c r="F91">
-        <v>2.750535506668249</v>
+        <v>4.338904131580631</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.215391126774156</v>
+        <v>8.398293093387604</v>
       </c>
       <c r="C92">
-        <v>15.51670864485384</v>
+        <v>2.352221495436215</v>
       </c>
       <c r="D92">
-        <v>2.900671931358807</v>
+        <v>3.402700902053212</v>
       </c>
       <c r="E92">
-        <v>4.820370710499794</v>
+        <v>14.86836473860091</v>
       </c>
       <c r="F92">
-        <v>2.759486915034874</v>
+        <v>4.364917581882891</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.218507420707243</v>
+        <v>8.43103804262018</v>
       </c>
       <c r="C93">
-        <v>15.54149702959398</v>
+        <v>2.356662806999196</v>
       </c>
       <c r="D93">
-        <v>2.909604004935971</v>
+        <v>3.431586281695283</v>
       </c>
       <c r="E93">
-        <v>4.873274847462764</v>
+        <v>14.9071606283412</v>
       </c>
       <c r="F93">
-        <v>2.768449563011668</v>
+        <v>4.390930396695878</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.2216346958375</v>
+        <v>8.463201163149737</v>
       </c>
       <c r="C94">
-        <v>15.56553184570747</v>
+        <v>2.361110999343583</v>
       </c>
       <c r="D94">
-        <v>2.918509826835784</v>
+        <v>3.46085194948474</v>
       </c>
       <c r="E94">
-        <v>4.926419614476746</v>
+        <v>14.94500987902511</v>
       </c>
       <c r="F94">
-        <v>2.777423370871176</v>
+        <v>4.416942535000294</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.224772782119234</v>
+        <v>8.494791866976964</v>
       </c>
       <c r="C95">
-        <v>15.58883883920679</v>
+        <v>2.365565909113769</v>
       </c>
       <c r="D95">
-        <v>2.92738926113852</v>
+        <v>3.490496809298267</v>
       </c>
       <c r="E95">
-        <v>4.979782228960532</v>
+        <v>14.98193710044798</v>
       </c>
       <c r="F95">
-        <v>2.786408258607994</v>
+        <v>4.442953955744259</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.227921509599905</v>
+        <v>8.525819444803302</v>
       </c>
       <c r="C96">
-        <v>15.6114428922601</v>
+        <v>2.370027373929588</v>
       </c>
       <c r="D96">
-        <v>2.93624217369556</v>
+        <v>3.520519504455255</v>
       </c>
       <c r="E96">
-        <v>5.033341426292973</v>
+        <v>15.01796613811266</v>
       </c>
       <c r="F96">
-        <v>2.795404145944357</v>
+        <v>4.468964617847731</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.231080708429813</v>
+        <v>8.556293066573401</v>
       </c>
       <c r="C97">
-        <v>15.63336804984067</v>
+        <v>2.374495232441507</v>
       </c>
       <c r="D97">
-        <v>2.945068432146101</v>
+        <v>3.550918269264512</v>
       </c>
       <c r="E97">
-        <v>5.08707742316801</v>
+        <v>15.05312045188327</v>
       </c>
       <c r="F97">
-        <v>2.804410952335768</v>
+        <v>4.494974480203385</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.234250208871961</v>
+        <v>8.58622178215899</v>
       </c>
       <c r="C98">
-        <v>15.65463754567113</v>
+        <v>2.378969324274326</v>
       </c>
       <c r="D98">
-        <v>2.953867905933304</v>
+        <v>3.581691032377009</v>
       </c>
       <c r="E98">
-        <v>5.140971866211609</v>
+        <v>15.08742285244888</v>
       </c>
       <c r="F98">
-        <v>2.813428596976694</v>
+        <v>4.520983501681053</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.237429841312095</v>
+        <v>8.615614521628657</v>
       </c>
       <c r="C99">
-        <v>15.67527382749199</v>
+        <v>2.383449490091507</v>
       </c>
       <c r="D99">
-        <v>2.962640466319765</v>
+        <v>3.612835476545052</v>
       </c>
       <c r="E99">
-        <v>5.195007769792209</v>
+        <v>15.12089558897272</v>
       </c>
       <c r="F99">
-        <v>2.822456998806287</v>
+        <v>4.546991641130575</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.240619436268865</v>
+        <v>8.644480097388536</v>
       </c>
       <c r="C100">
-        <v>15.69529858161304</v>
+        <v>2.387935571621069</v>
       </c>
       <c r="D100">
-        <v>2.971385986402403</v>
+        <v>3.644348910012186</v>
       </c>
       <c r="E100">
-        <v>5.249169446404828</v>
+        <v>15.15356036317096</v>
       </c>
       <c r="F100">
-        <v>2.831496076514158</v>
+        <v>4.5729988573829</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.243818824404142</v>
+        <v>8.672827202679773</v>
       </c>
       <c r="C101">
-        <v>15.7147327568407</v>
+        <v>2.392427411703169</v>
       </c>
       <c r="D101">
-        <v>2.98010434112664</v>
+        <v>3.67622835703851</v>
       </c>
       <c r="E101">
-        <v>5.303442432456638</v>
+        <v>15.18543812495316</v>
       </c>
       <c r="F101">
-        <v>2.840545748546162</v>
+        <v>4.599005109255607</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.247027836533424</v>
+        <v>8.700664414020864</v>
       </c>
       <c r="C102">
-        <v>15.73359658770923</v>
+        <v>2.396924854245381</v>
       </c>
       <c r="D102">
-        <v>2.98879540729998</v>
+        <v>3.708470545109159</v>
       </c>
       <c r="E102">
-        <v>5.357813411787698</v>
+        <v>15.21654956435291</v>
       </c>
       <c r="F102">
-        <v>2.849605933110236</v>
+        <v>4.625010355553848</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.250246303636355</v>
+        <v>8.728000192499776</v>
       </c>
       <c r="C103">
-        <v>15.75190961709806</v>
+        <v>2.401427744295716</v>
       </c>
       <c r="D103">
-        <v>2.997459063604868</v>
+        <v>3.741071890711664</v>
       </c>
       <c r="E103">
-        <v>5.412270138712627</v>
+        <v>15.24691476033508</v>
       </c>
       <c r="F103">
-        <v>2.858676548182233</v>
+        <v>4.651014555072723</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2.253474056867327</v>
+        <v>8.754842882206468</v>
       </c>
       <c r="C104">
-        <v>15.76969071821455</v>
+        <v>2.40593592806619</v>
       </c>
       <c r="D104">
-        <v>3.00609519061091</v>
+        <v>3.774028529754114</v>
       </c>
       <c r="E104">
-        <v>5.466801362111794</v>
+        <v>15.27655328978553</v>
       </c>
       <c r="F104">
-        <v>2.867757511511787</v>
+        <v>4.67701766660219</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2.256710927566142</v>
+        <v>8.781200713770229</v>
       </c>
       <c r="C105">
-        <v>15.78695811594922</v>
+        <v>2.410449252954027</v>
       </c>
       <c r="D105">
-        <v>3.014703670786389</v>
+        <v>3.807336298240163</v>
       </c>
       <c r="E105">
-        <v>5.521396751600988</v>
+        <v>15.30548424106802</v>
       </c>
       <c r="F105">
-        <v>2.876848740628186</v>
+        <v>4.703019648927337</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2.259956747268749</v>
+        <v>8.807081803718003</v>
       </c>
       <c r="C106">
-        <v>15.80372940765798</v>
+        <v>2.414967567536678</v>
       </c>
       <c r="D106">
-        <v>3.023284388509099</v>
+        <v>3.840990769276763</v>
       </c>
       <c r="E106">
-        <v>5.576046826584078</v>
+        <v>15.33372602342557</v>
       </c>
       <c r="F106">
-        <v>2.885950152846247</v>
+        <v>4.729020460832036</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.263211347718007</v>
+        <v>8.832494155223424</v>
       </c>
       <c r="C107">
-        <v>15.82002158331882</v>
+        <v>2.419490721623066</v>
       </c>
       <c r="D107">
-        <v>3.031837230076476</v>
+        <v>3.874987247112175</v>
       </c>
       <c r="E107">
-        <v>5.630742888737155</v>
+        <v>15.36129682111375</v>
       </c>
       <c r="F107">
-        <v>2.895061665272201</v>
+        <v>4.755020061102563</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2.266474560874491</v>
+        <v>8.857445660323418</v>
       </c>
       <c r="C108">
-        <v>15.83585104515279</v>
+        <v>2.424018566291276</v>
       </c>
       <c r="D108">
-        <v>3.040362083715036</v>
+        <v>3.909320766879447</v>
       </c>
       <c r="E108">
-        <v>5.685476958264453</v>
+        <v>15.38821427269295</v>
       </c>
       <c r="F108">
-        <v>2.904183194809572</v>
+        <v>4.781018408527359</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.269746218927312</v>
+        <v>8.881944099164889</v>
       </c>
       <c r="C109">
-        <v>15.8512336266511</v>
+        <v>2.428550953880071</v>
       </c>
       <c r="D109">
-        <v>3.04885883958911</v>
+        <v>3.943986150631551</v>
       </c>
       <c r="E109">
-        <v>5.740241714125037</v>
+        <v>15.41449556818533</v>
       </c>
       <c r="F109">
-        <v>2.913314658165052</v>
+        <v>4.807015461902789</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.273026154304943</v>
+        <v>8.905997141938176</v>
       </c>
       <c r="C110">
-        <v>15.86618461106738</v>
+        <v>2.433087738022294</v>
       </c>
       <c r="D110">
-        <v>3.057327389808856</v>
+        <v>3.978977956057026</v>
       </c>
       <c r="E110">
-        <v>5.795030438287778</v>
+        <v>15.44015746247967</v>
       </c>
       <c r="F110">
-        <v>2.922455971854369</v>
+        <v>4.83301118003399</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.276314199686051</v>
+        <v>8.929612349661058</v>
       </c>
       <c r="C111">
-        <v>15.88071874937896</v>
+        <v>2.437628773677012</v>
       </c>
       <c r="D111">
-        <v>3.065767628437584</v>
+        <v>4.014290547482682</v>
       </c>
       <c r="E111">
-        <v>5.84983696399203</v>
+        <v>15.46521611438783</v>
       </c>
       <c r="F111">
-        <v>2.931607052208134</v>
+        <v>4.859005521736138</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2.279610188010305</v>
+        <v>8.952797174617551</v>
       </c>
       <c r="C112">
-        <v>15.89485027770263</v>
+        <v>2.442173917173937</v>
       </c>
       <c r="D112">
-        <v>3.074179451498344</v>
+        <v>4.049918076183672</v>
       </c>
       <c r="E112">
-        <v>5.904655627915671</v>
+        <v>15.48968747023672</v>
       </c>
       <c r="F112">
-        <v>2.940767815377689</v>
+        <v>4.884998445839883</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2.282913952489166</v>
+        <v>8.975558962113665</v>
       </c>
       <c r="C113">
-        <v>15.90859293422926</v>
+        <v>2.44672302618828</v>
       </c>
       <c r="D113">
-        <v>3.082562756979832</v>
+        <v>4.08585449870862</v>
       </c>
       <c r="E113">
-        <v>5.959481226101859</v>
+        <v>15.51358699911645</v>
       </c>
       <c r="F113">
-        <v>2.949938177340917</v>
+        <v>4.910989911191213</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2.286225326616633</v>
+        <v>8.997904950706548</v>
       </c>
       <c r="C114">
-        <v>15.92195997562687</v>
+        <v>2.451275959800257</v>
       </c>
       <c r="D114">
-        <v>3.090917444841538</v>
+        <v>4.122093606313233</v>
       </c>
       <c r="E114">
-        <v>6.014308973472058</v>
+        <v>15.53692977116563</v>
       </c>
       <c r="F114">
-        <v>2.959118053908046</v>
+        <v>4.936979876654108</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2.289544144179965</v>
+        <v>9.019842273363526</v>
       </c>
       <c r="C115">
-        <v>15.93496419298191</v>
+        <v>2.455832578517856</v>
       </c>
       <c r="D115">
-        <v>3.099243417018233</v>
+        <v>4.158629015227778</v>
       </c>
       <c r="E115">
-        <v>6.069134466716062</v>
+        <v>15.55973047123567</v>
       </c>
       <c r="F115">
-        <v>2.968307360727417</v>
+        <v>4.962968301114654</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2.292870239270324</v>
+        <v>9.041377958985453</v>
       </c>
       <c r="C116">
-        <v>15.94761792725204</v>
+        <v>2.460392744306747</v>
       </c>
       <c r="D116">
-        <v>3.107540577423693</v>
+        <v>4.195454203213203</v>
       </c>
       <c r="E116">
-        <v>6.123953650350026</v>
+        <v>15.58200324435911</v>
       </c>
       <c r="F116">
-        <v>2.977506013291229</v>
+        <v>4.98895514348062</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.296203446293384</v>
+        <v>9.062518932431738</v>
       </c>
       <c r="C117">
-        <v>15.95993308425328</v>
+        <v>2.464956320587357</v>
       </c>
       <c r="D117">
-        <v>3.115808831953752</v>
+        <v>4.232562507852334</v>
       </c>
       <c r="E117">
-        <v>6.178762785724608</v>
+        <v>15.60376205963301</v>
       </c>
       <c r="F117">
-        <v>2.986713926941259</v>
+        <v>5.014940362685742</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2.299543599979849</v>
+        <v>9.083272016259526</v>
       </c>
       <c r="C118">
-        <v>15.97192114921067</v>
+        <v>2.469523172283123</v>
       </c>
       <c r="D118">
-        <v>3.124048088488607</v>
+        <v>4.269947149231903</v>
       </c>
       <c r="E118">
-        <v>6.233558422764172</v>
+        <v>15.62502046284491</v>
       </c>
       <c r="F118">
-        <v>2.995931016874535</v>
+        <v>5.040923917691757</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2.302890535395905</v>
+        <v>9.103643931577004</v>
       </c>
       <c r="C119">
-        <v>15.98359320084295</v>
+        <v>2.474093165852174</v>
       </c>
       <c r="D119">
-        <v>3.132258256894456</v>
+        <v>4.307601245665958</v>
       </c>
       <c r="E119">
-        <v>6.288337374233349</v>
+        <v>15.64579164594718</v>
       </c>
       <c r="F119">
-        <v>3.005157198148994</v>
+        <v>5.06690576748838</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2.306244087953586</v>
+        <v>9.123641298670568</v>
       </c>
       <c r="C120">
-        <v>15.99495992504684</v>
+        <v>2.478666169297163</v>
       </c>
       <c r="D120">
-        <v>3.140439249024383</v>
+        <v>4.34551782115092</v>
       </c>
       <c r="E120">
-        <v>6.343096692321603</v>
+        <v>15.66608846102977</v>
       </c>
       <c r="F120">
-        <v>3.014392385689086</v>
+        <v>5.092885871098824</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2.309604093421048</v>
+        <v>9.143270638582884</v>
       </c>
       <c r="C121">
-        <v>16.00603162813667</v>
+        <v>2.483242052187757</v>
       </c>
       <c r="D121">
-        <v>3.148590978718583</v>
+        <v>4.383689827314786</v>
       </c>
       <c r="E121">
-        <v>6.397833647356406</v>
+        <v>15.68592326057192</v>
       </c>
       <c r="F121">
-        <v>3.023636494291351</v>
+        <v>5.118864187579566</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.312970387932743</v>
+        <v>9.162538373625209</v>
       </c>
       <c r="C122">
-        <v>16.01681824969543</v>
+        <v>2.487820685695479</v>
       </c>
       <c r="D122">
-        <v>3.156713361803858</v>
+        <v>4.422110152957834</v>
       </c>
       <c r="E122">
-        <v>6.452545708463436</v>
+        <v>15.70530826636399</v>
       </c>
       <c r="F122">
-        <v>3.032889438629948</v>
+        <v>5.144840676022061</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.316342807999491</v>
+        <v>9.181450828608963</v>
       </c>
       <c r="C123">
-        <v>16.02732937502057</v>
+        <v>2.492401942636244</v>
       </c>
       <c r="D123">
-        <v>3.164806316092433</v>
+        <v>4.460771638413566</v>
       </c>
       <c r="E123">
-        <v>6.507230526001472</v>
+        <v>15.72425532139705</v>
       </c>
       <c r="F123">
-        <v>3.042151133262144</v>
+        <v>5.170815295557179</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2.319721190518441</v>
+        <v>9.20001423198252</v>
       </c>
       <c r="C124">
-        <v>16.03757424717608</v>
+        <v>2.496985697456219</v>
       </c>
       <c r="D124">
-        <v>3.172869761380073</v>
+        <v>4.499667089610086</v>
       </c>
       <c r="E124">
-        <v>6.561885915619583</v>
+        <v>15.74277595459883</v>
       </c>
       <c r="F124">
-        <v>3.05142149263376</v>
+        <v>5.1967880053546</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2.323105372782914</v>
+        <v>9.218234716534965</v>
       </c>
       <c r="C125">
-        <v>16.04756177868888</v>
+        <v>2.501571826284047</v>
       </c>
       <c r="D125">
-        <v>3.180903619443512</v>
+        <v>4.538789293627149</v>
       </c>
       <c r="E125">
-        <v>6.616509843785866</v>
+        <v>15.76088139532053</v>
       </c>
       <c r="F125">
-        <v>3.060700431084574</v>
+        <v>5.222758764625879</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2.326495192492129</v>
+        <v>9.236118320694231</v>
       </c>
       <c r="C126">
-        <v>16.05730056285437</v>
+        <v>2.506160206954351</v>
       </c>
       <c r="D126">
-        <v>3.188907814037209</v>
+        <v>4.578131020593037</v>
       </c>
       <c r="E126">
-        <v>6.671100414655662</v>
+        <v>15.7785824183473</v>
       </c>
       <c r="F126">
-        <v>3.069987862853669</v>
+        <v>5.248727532627284</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2.329890487760801</v>
+        <v>9.253670989457975</v>
       </c>
       <c r="C127">
-        <v>16.06679888470801</v>
+        <v>2.510750719043046</v>
       </c>
       <c r="D127">
-        <v>3.196882270889368</v>
+        <v>4.617685052984971</v>
       </c>
       <c r="E127">
-        <v>6.725655858155966</v>
+        <v>15.79588969670422</v>
       </c>
       <c r="F127">
-        <v>3.079283702084736</v>
+        <v>5.27469426865905</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2.333291097128602</v>
+        <v>9.270898575323207</v>
       </c>
       <c r="C128">
-        <v>16.07606473163451</v>
+        <v>2.515343243863647</v>
       </c>
       <c r="D128">
-        <v>3.204826917697418</v>
+        <v>4.657444178989991</v>
       </c>
       <c r="E128">
-        <v>6.780174519171167</v>
+        <v>15.81281356807576</v>
       </c>
       <c r="F128">
-        <v>3.088587862831333</v>
+        <v>5.300658932070295</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2.336696859569502</v>
+        <v>9.287806839532125</v>
       </c>
       <c r="C129">
-        <v>16.08510580364553</v>
+        <v>2.51993766451606</v>
       </c>
       <c r="D129">
-        <v>3.2127416841228</v>
+        <v>4.697401214165993</v>
       </c>
       <c r="E129">
-        <v>6.834654847730894</v>
+        <v>15.82936409150641</v>
       </c>
       <c r="F129">
-        <v>3.097900259062087</v>
+        <v>5.326621482259224</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2.340107614500952</v>
+        <v>9.304401452860336</v>
       </c>
       <c r="C130">
-        <v>16.09392952333563</v>
+        <v>2.524533865917521</v>
       </c>
       <c r="D130">
-        <v>3.220626501784979</v>
+        <v>4.737549012911699</v>
       </c>
       <c r="E130">
-        <v>6.889095390102762</v>
+        <v>15.84555106215063</v>
       </c>
       <c r="F130">
-        <v>3.107220804665847</v>
+        <v>5.352581878673925</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.343523201792939</v>
+        <v>9.320687996784203</v>
       </c>
       <c r="C131">
-        <v>16.10254304550466</v>
+        <v>2.529131734820656</v>
       </c>
       <c r="D131">
-        <v>3.22848130425481</v>
+        <v>4.777880463237719</v>
       </c>
       <c r="E131">
-        <v>6.943494780706209</v>
+        <v>15.86138387229158</v>
       </c>
       <c r="F131">
-        <v>3.11654941345678</v>
+        <v>5.378540080816815</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.34694346177689</v>
+        <v>9.336671964512316</v>
       </c>
       <c r="C132">
-        <v>16.11095326649028</v>
+        <v>2.533731159828179</v>
       </c>
       <c r="D132">
-        <v>3.23630602704733</v>
+        <v>4.818388520942963</v>
       </c>
       <c r="E132">
-        <v>6.99785173476995</v>
+        <v>15.87687182498955</v>
       </c>
       <c r="F132">
-        <v>3.125885999179421</v>
+        <v>5.40449604824344</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.35036823525442</v>
+        <v>9.352358761931873</v>
       </c>
       <c r="C133">
-        <v>16.11916683317995</v>
+        <v>2.538332031433686</v>
       </c>
       <c r="D133">
-        <v>3.244100607613952</v>
+        <v>4.859066189837248</v>
       </c>
       <c r="E133">
-        <v>7.052165041661488</v>
+        <v>15.89202393084889</v>
       </c>
       <c r="F133">
-        <v>3.13523047551366</v>
+        <v>5.430449740564998</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2.353797363505939</v>
+        <v>9.367753708690016</v>
       </c>
       <c r="C134">
-        <v>16.12719015174475</v>
+        <v>2.542934242065112</v>
       </c>
       <c r="D134">
-        <v>3.25186498533399</v>
+        <v>4.899906552718717</v>
       </c>
       <c r="E134">
-        <v>7.106433558827178</v>
+        <v>15.90684895410083</v>
       </c>
       <c r="F134">
-        <v>3.144582756079681</v>
+        <v>5.456401117452858</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2.357230688299099</v>
+        <v>9.382862039207128</v>
       </c>
       <c r="C135">
-        <v>16.1350293960835</v>
+        <v>2.547537686074414</v>
       </c>
       <c r="D135">
-        <v>3.259599101505538</v>
+        <v>4.940902768811116</v>
       </c>
       <c r="E135">
-        <v>7.160656206283353</v>
+        <v>15.92135542712298</v>
       </c>
       <c r="F135">
-        <v>3.153942754442841</v>
+        <v>5.482350138638072</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.360668051897077</v>
+        <v>9.397688903700184</v>
       </c>
       <c r="C136">
-        <v>16.1426905159877</v>
+        <v>2.552142259783489</v>
       </c>
       <c r="D136">
-        <v>3.267302899335719</v>
+        <v>4.982048072122625</v>
       </c>
       <c r="E136">
-        <v>7.214831961607053</v>
+        <v>15.93555152733157</v>
       </c>
       <c r="F136">
-        <v>3.163310384118494</v>
+        <v>5.508296763910226</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.364109297066709</v>
+        <v>9.412239369152369</v>
       </c>
       <c r="C137">
-        <v>16.15017924504949</v>
+        <v>2.556747861513883</v>
       </c>
       <c r="D137">
-        <v>3.274976323930358</v>
+        <v>5.023335801317814</v>
       </c>
       <c r="E137">
-        <v>7.268959855385086</v>
+        <v>15.94944535279772</v>
       </c>
       <c r="F137">
-        <v>3.172685558576753</v>
+        <v>5.534240953119263</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2.367554267086453</v>
+        <v>9.426518420424022</v>
       </c>
       <c r="C138">
-        <v>16.15750110829361</v>
+        <v>2.561354391631709</v>
       </c>
       <c r="D138">
-        <v>3.28261932228306</v>
+        <v>5.064759371634469</v>
       </c>
       <c r="E138">
-        <v>7.323038967055059</v>
+        <v>15.96304474783797</v>
       </c>
       <c r="F138">
-        <v>3.182068191247211</v>
+        <v>5.560182666186714</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2.371002805754198</v>
+        <v>9.440530961187383</v>
       </c>
       <c r="C139">
-        <v>16.16466142957485</v>
+        <v>2.565961752527969</v>
       </c>
       <c r="D139">
-        <v>3.290231843263691</v>
+        <v>5.106312315034651</v>
       </c>
       <c r="E139">
-        <v>7.377068421125368</v>
+        <v>15.97635733961764</v>
       </c>
       <c r="F139">
-        <v>3.191458195523579</v>
+        <v>5.58612186309841</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2.374454757394897</v>
+        <v>9.454281814924448</v>
       </c>
       <c r="C140">
-        <v>16.17166533871499</v>
+        <v>2.570569848680136</v>
       </c>
       <c r="D140">
-        <v>3.297813837606276</v>
+        <v>5.147988260629437</v>
       </c>
       <c r="E140">
-        <v>7.43104738375289</v>
+        <v>15.98939055227311</v>
       </c>
       <c r="F140">
-        <v>3.200855484768288</v>
+        <v>5.612058503904164</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2.377909966868043</v>
+        <v>9.467775726046577</v>
       </c>
       <c r="C141">
-        <v>16.17851777841048</v>
+        <v>2.575178586683433</v>
       </c>
       <c r="D141">
-        <v>3.30536525789632</v>
+        <v>5.189780941761914</v>
       </c>
       <c r="E141">
-        <v>7.484975059604134</v>
+        <v>16.00215149407201</v>
       </c>
       <c r="F141">
-        <v>3.210259972317019</v>
+        <v>5.637992548716289</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2.381368279574972</v>
+        <v>9.481017360729457</v>
       </c>
       <c r="C142">
-        <v>16.18522351090978</v>
+        <v>2.579787875276835</v>
       </c>
       <c r="D142">
-        <v>3.312886058557571</v>
+        <v>5.231684214733215</v>
       </c>
       <c r="E142">
-        <v>7.538850688988256</v>
+        <v>16.01464720721928</v>
       </c>
       <c r="F142">
-        <v>3.21967157148318</v>
+        <v>5.663923957729867</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>2.384829541465999</v>
+        <v>9.494011308049362</v>
       </c>
       <c r="C143">
-        <v>16.19178712445951</v>
+        <v>2.58439762534224</v>
       </c>
       <c r="D143">
-        <v>3.320376195838235</v>
+        <v>5.273692035092513</v>
       </c>
       <c r="E143">
-        <v>7.592673545249584</v>
+        <v>16.02688451335672</v>
       </c>
       <c r="F143">
-        <v>3.229090195562329</v>
+        <v>5.6898526912078</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2.388293599047388</v>
+        <v>9.506762080962467</v>
       </c>
       <c r="C144">
-        <v>16.19821303954567</v>
+        <v>2.589007749959665</v>
       </c>
       <c r="D144">
-        <v>3.327835627796643</v>
+        <v>5.315798490180572</v>
       </c>
       <c r="E144">
-        <v>7.646442932393481</v>
+        <v>16.03887004285798</v>
       </c>
       <c r="F144">
-        <v>3.238515757836525</v>
+        <v>5.715778709483683</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2.391760299388139</v>
+        <v>9.519274117127665</v>
       </c>
       <c r="C145">
-        <v>16.20450551491084</v>
+        <v>2.593618164456144</v>
       </c>
       <c r="D145">
-        <v>3.335264314286384</v>
+        <v>5.357997777842368</v>
       </c>
       <c r="E145">
-        <v>7.700158182904235</v>
+        <v>16.0506102486983</v>
       </c>
       <c r="F145">
-        <v>3.24794817157863</v>
+        <v>5.741701972957518</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2.395229490126626</v>
+        <v>9.531551780176354</v>
       </c>
       <c r="C146">
-        <v>16.21066865337942</v>
+        <v>2.598228786392091</v>
       </c>
       <c r="D146">
-        <v>3.342662216940909</v>
+        <v>5.400284216893103</v>
       </c>
       <c r="E146">
-        <v>7.753818655763321</v>
+        <v>16.06211130174122</v>
       </c>
       <c r="F146">
-        <v>3.257387350056547</v>
+        <v>5.767622442117555</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2.398701019477047</v>
+        <v>9.543599360459515</v>
       </c>
       <c r="C147">
-        <v>16.21670640747764</v>
+        <v>2.602839535601133</v>
       </c>
       <c r="D147">
-        <v>3.350029299157631</v>
+        <v>5.442652254278562</v>
       </c>
       <c r="E147">
-        <v>7.807423734627712</v>
+        <v>16.07337931958402</v>
       </c>
       <c r="F147">
-        <v>3.266833206537407</v>
+        <v>5.793540077524834</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2.402174736235703</v>
+        <v>9.555421076048114</v>
       </c>
       <c r="C148">
-        <v>16.22262258486312</v>
+        <v>2.60745033423038</v>
       </c>
       <c r="D148">
-        <v>3.357365526081525</v>
+        <v>5.485096449105396</v>
       </c>
       <c r="E148">
-        <v>7.860972826172596</v>
+        <v>16.08442022829884</v>
       </c>
       <c r="F148">
-        <v>3.276285654291685</v>
+        <v>5.819454839817527</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2.405650489787121</v>
+        <v>9.567021073897672</v>
       </c>
       <c r="C149">
-        <v>16.22842085357374</v>
+        <v>2.612061106806477</v>
       </c>
       <c r="D149">
-        <v>3.36467086458822</v>
+        <v>5.527611495395798</v>
       </c>
       <c r="E149">
-        <v>7.914465358564607</v>
+        <v>16.09523978547033</v>
       </c>
       <c r="F149">
-        <v>3.285744606597265</v>
+        <v>5.845366689706467</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2.409128130109988</v>
+        <v>9.578403430284736</v>
       </c>
       <c r="C150">
-        <v>16.23410474708713</v>
+        <v>2.616671780177761</v>
       </c>
       <c r="D150">
-        <v>3.371945283266614</v>
+        <v>5.570192202137751</v>
       </c>
       <c r="E150">
-        <v>7.967900780072298</v>
+        <v>16.10584359383984</v>
       </c>
       <c r="F150">
-        <v>3.295209976743443</v>
+        <v>5.871275587992597</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2.412607507782929</v>
+        <v>9.589572152467387</v>
       </c>
       <c r="C151">
-        <v>16.23967766921749</v>
+        <v>2.621282283605066</v>
       </c>
       <c r="D151">
-        <v>3.379188752401024</v>
+        <v>5.612833505593337</v>
       </c>
       <c r="E151">
-        <v>8.021278557786014</v>
+        <v>16.11623700645114</v>
       </c>
       <c r="F151">
-        <v>3.304681678034874</v>
+        <v>5.897181495555611</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2.4160884739901</v>
+        <v>9.600531179401267</v>
       </c>
       <c r="C152">
-        <v>16.24514289883265</v>
+        <v>2.625892548792128</v>
       </c>
       <c r="D152">
-        <v>3.386401243952868</v>
+        <v>5.655530467000139</v>
       </c>
       <c r="E152">
-        <v>8.074598176448104</v>
+        <v>16.12642533153844</v>
       </c>
       <c r="F152">
-        <v>3.314159623795456</v>
+        <v>5.923084373357827</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2.419570880526627</v>
+        <v>9.611284382719012</v>
       </c>
       <c r="C153">
-        <v>16.25050359441488</v>
+        <v>2.630502509928724</v>
       </c>
       <c r="D153">
-        <v>3.393582731541904</v>
+        <v>5.698278264246427</v>
       </c>
       <c r="E153">
-        <v>8.127859137377724</v>
+        <v>16.13641371198429</v>
       </c>
       <c r="F153">
-        <v>3.323643727372163</v>
+        <v>5.948984182439654</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2.423054579803863</v>
+        <v>9.621835566407061</v>
       </c>
       <c r="C154">
-        <v>16.25576279846135</v>
+        <v>2.635112103654957</v>
       </c>
       <c r="D154">
-        <v>3.400733190427026</v>
+        <v>5.741072205164135</v>
       </c>
       <c r="E154">
-        <v>8.181060957483732</v>
+        <v>16.14620714248007</v>
       </c>
       <c r="F154">
-        <v>3.333133902138809</v>
+        <v>5.974880883934641</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2.42653942485448</v>
+        <v>9.632188470112501</v>
       </c>
       <c r="C155">
-        <v>16.26092344172837</v>
+        <v>2.639721269147049</v>
       </c>
       <c r="D155">
-        <v>3.407852597486633</v>
+        <v>5.78390771097447</v>
       </c>
       <c r="E155">
-        <v>8.234203168359178</v>
+        <v>16.15581048272074</v>
       </c>
       <c r="F155">
-        <v>3.342630061499762</v>
+        <v>6.000774439060275</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2.430025269337387</v>
+        <v>9.642346768867151</v>
       </c>
       <c r="C156">
-        <v>16.26598834733408</v>
+        <v>2.644329948173868</v>
       </c>
       <c r="D156">
-        <v>3.414940931198579</v>
+        <v>5.826780328256151</v>
       </c>
       <c r="E156">
-        <v>8.287285315446619</v>
+        <v>16.16522837361639</v>
       </c>
       <c r="F156">
-        <v>3.352132118893603</v>
+        <v>6.02666480912157</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2.433511967542493</v>
+        <v>9.652314074103886</v>
       </c>
       <c r="C157">
-        <v>16.27096023470839</v>
+        <v>2.648938085081751</v>
       </c>
       <c r="D157">
-        <v>3.421998171619727</v>
+        <v>5.869685720759676</v>
       </c>
       <c r="E157">
-        <v>8.34030695727326</v>
+        <v>16.17446541641605</v>
       </c>
       <c r="F157">
-        <v>3.361639987796717</v>
+        <v>6.052551955505497</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>2.436999374395318</v>
+        <v>9.662093932306162</v>
       </c>
       <c r="C158">
-        <v>16.27584172341365</v>
+        <v>2.6535456268161</v>
       </c>
       <c r="D158">
-        <v>3.429024300365101</v>
+        <v>5.912619666870654</v>
       </c>
       <c r="E158">
-        <v>8.393267664743744</v>
+        <v>16.18352607045225</v>
       </c>
       <c r="F158">
-        <v>3.371153581726837</v>
+        <v>6.078435839696668</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2.440487345461417</v>
+        <v>9.671689830206891</v>
       </c>
       <c r="C159">
-        <v>16.2806353368229</v>
+        <v>2.658152522984168</v>
       </c>
       <c r="D159">
-        <v>3.43601930058666</v>
+        <v>5.955578065075624</v>
       </c>
       <c r="E159">
-        <v>8.446167020492179</v>
+        <v>16.19241466506475</v>
       </c>
       <c r="F159">
-        <v>3.380672814246525</v>
+        <v>6.104316423267848</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2.443975736950614</v>
+        <v>9.681105193426527</v>
       </c>
       <c r="C160">
-        <v>16.28534350567195</v>
+        <v>2.662758725958002</v>
       </c>
       <c r="D160">
-        <v>3.442983156951704</v>
+        <v>5.998556922569031</v>
       </c>
       <c r="E160">
-        <v>8.499004618281603</v>
+        <v>16.20113541212677</v>
       </c>
       <c r="F160">
-        <v>3.390197598966602</v>
+        <v>6.130193667883814</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2.447464405721104</v>
+        <v>9.690343387468543</v>
       </c>
       <c r="C161">
-        <v>16.2899685714865</v>
+        <v>2.667364190751925</v>
       </c>
       <c r="D161">
-        <v>3.449915855620911</v>
+        <v>6.041552363055875</v>
       </c>
       <c r="E161">
-        <v>8.55178006245343</v>
+        <v>16.20969233219596</v>
       </c>
       <c r="F161">
-        <v>3.399727849549518</v>
+        <v>6.15606753529335</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2.450953209283393</v>
+        <v>9.69940771639588</v>
       </c>
       <c r="C162">
-        <v>16.29451278988287</v>
+        <v>2.671968875159392</v>
       </c>
       <c r="D162">
-        <v>3.456817384226048</v>
+        <v>6.084560618383374</v>
       </c>
       <c r="E162">
-        <v>8.604492967416396</v>
+        <v>16.21808941071274</v>
       </c>
       <c r="F162">
-        <v>3.409263479712664</v>
+        <v>6.181937987348506</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2.454442005804085</v>
+        <v>9.708301428037409</v>
       </c>
       <c r="C163">
-        <v>16.29897833375799</v>
+        <v>2.676572739782071</v>
       </c>
       <c r="D163">
-        <v>3.463687731847325</v>
+        <v>6.12757802813293</v>
       </c>
       <c r="E163">
-        <v>8.657142957177125</v>
+        <v>16.22633051169371</v>
       </c>
       <c r="F163">
-        <v>3.418804403231634</v>
+        <v>6.207804985992714</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2.457930654109503</v>
+        <v>9.717027712600933</v>
       </c>
       <c r="C164">
-        <v>16.30336729635816</v>
+        <v>2.68117574810994</v>
       </c>
       <c r="D164">
-        <v>3.470526888990441</v>
+        <v>6.170601040085491</v>
       </c>
       <c r="E164">
-        <v>8.70972966490465</v>
+        <v>16.23441938531923</v>
       </c>
       <c r="F164">
-        <v>3.428350533943437</v>
+        <v>6.233668493265017</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2.461419013689139</v>
+        <v>9.725589703596491</v>
       </c>
       <c r="C165">
-        <v>16.30768169424373</v>
+        <v>2.685777866416868</v>
       </c>
       <c r="D165">
-        <v>3.477334847563314</v>
+        <v>6.21362620361188</v>
       </c>
       <c r="E165">
-        <v>8.762252732528555</v>
+        <v>16.24235967976319</v>
       </c>
       <c r="F165">
-        <v>3.437901785749648</v>
+        <v>6.259528471293545</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2.464906944698954</v>
+        <v>9.73399047679448</v>
       </c>
       <c r="C166">
-        <v>16.31192347014441</v>
+        <v>2.690379063903195</v>
       </c>
       <c r="D166">
-        <v>3.484111600852511</v>
+        <v>6.256650172473768</v>
       </c>
       <c r="E166">
-        <v>8.814711810366999</v>
+        <v>16.25015487547782</v>
       </c>
       <c r="F166">
-        <v>3.447458072619531</v>
+        <v>6.285384882310525</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2.468394307964533</v>
+        <v>9.742233054847317</v>
       </c>
       <c r="C167">
-        <v>16.31609449571135</v>
+        <v>2.694979312759114</v>
       </c>
       <c r="D167">
-        <v>3.490857143499395</v>
+        <v>6.299669697940526</v>
       </c>
       <c r="E167">
-        <v>8.867106556781879</v>
+        <v>16.25780842252822</v>
       </c>
       <c r="F167">
-        <v>3.457019308593032</v>
+        <v>6.311237688644661</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2.471880964984072</v>
+        <v>9.750320406202691</v>
       </c>
       <c r="C168">
-        <v>16.32019657417332</v>
+        <v>2.699578588161526</v>
       </c>
       <c r="D168">
-        <v>3.497571471475993</v>
+        <v>6.342681629935985</v>
       </c>
       <c r="E168">
-        <v>8.919436637860004</v>
+        <v>16.2653236672835</v>
       </c>
       <c r="F168">
-        <v>3.466585407783791</v>
+        <v>6.337086852723166</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2.475366777931238</v>
+        <v>9.758255445958397</v>
       </c>
       <c r="C169">
-        <v>16.32423144289144</v>
+        <v>2.704176868248845</v>
       </c>
       <c r="D169">
-        <v>3.504254582060603</v>
+        <v>6.385682915562891</v>
       </c>
       <c r="E169">
-        <v>8.971701727116471</v>
+        <v>16.27270385645696</v>
       </c>
       <c r="F169">
-        <v>3.476156284382089</v>
+        <v>6.362932337067474</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2.478851609657842</v>
+        <v>9.766041035275695</v>
       </c>
       <c r="C170">
-        <v>16.32820077582747</v>
+        <v>2.708774134234482</v>
       </c>
       <c r="D170">
-        <v>3.510906473813153</v>
+        <v>6.428670595694586</v>
       </c>
       <c r="E170">
-        <v>9.023901505220488</v>
+        <v>16.27995214830495</v>
       </c>
       <c r="F170">
-        <v>3.485731852657731</v>
+        <v>6.38877410430366</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2.482335323696391</v>
+        <v>9.773679985086453</v>
       </c>
       <c r="C171">
-        <v>16.33210618591684</v>
+        <v>2.713370370539456</v>
       </c>
       <c r="D171">
-        <v>3.517527146550319</v>
+        <v>6.471641795073314</v>
       </c>
       <c r="E171">
-        <v>9.076035659739537</v>
+        <v>16.28707155415794</v>
       </c>
       <c r="F171">
-        <v>3.495312026962903</v>
+        <v>6.414612117158818</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>2.485817784262486</v>
+        <v>9.781175055477565</v>
       </c>
       <c r="C172">
-        <v>16.33594922735853</v>
+        <v>2.717965564630459</v>
       </c>
       <c r="D172">
-        <v>3.524116601320413</v>
+        <v>6.5145937367358</v>
       </c>
       <c r="E172">
-        <v>9.128103884902771</v>
+        <v>16.29406505907025</v>
       </c>
       <c r="F172">
-        <v>3.504896721734934</v>
+        <v>6.440446338461368</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>2.489298856257075</v>
+        <v>9.788528956499587</v>
       </c>
       <c r="C173">
-        <v>16.33973139782093</v>
+        <v>2.72255970716179</v>
       </c>
       <c r="D173">
-        <v>3.530674840378063</v>
+        <v>6.557523728665791</v>
       </c>
       <c r="E173">
-        <v>9.180105881379779</v>
+        <v>16.30093555978065</v>
       </c>
       <c r="F173">
-        <v>3.51448585149904</v>
+        <v>6.466276731138132</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>2.492778405268555</v>
+        <v>9.795744346832549</v>
       </c>
       <c r="C174">
-        <v>16.34345414056484</v>
+        <v>2.727152792033909</v>
       </c>
       <c r="D174">
-        <v>3.537201867158688</v>
+        <v>6.60042916193138</v>
       </c>
       <c r="E174">
-        <v>9.232041356075637</v>
+        <v>16.30768586582487</v>
       </c>
       <c r="F174">
-        <v>3.524079330871007</v>
+        <v>6.492103258221789</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2.496256297574748</v>
+        <v>9.80282383860634</v>
       </c>
       <c r="C175">
-        <v>16.34711884649244</v>
+        <v>2.731744816539968</v>
       </c>
       <c r="D175">
-        <v>3.543697686252781</v>
+        <v>6.643307505331594</v>
       </c>
       <c r="E175">
-        <v>9.283910021939098</v>
+        <v>16.31431871010212</v>
       </c>
       <c r="F175">
-        <v>3.533677074559828</v>
+        <v>6.517925882849914</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2.49973240014472</v>
+        <v>9.809769996198945</v>
       </c>
       <c r="C176">
-        <v>16.3507268561162</v>
+        <v>2.736335781135994</v>
       </c>
       <c r="D176">
-        <v>3.550162303380019</v>
+        <v>6.686156315789582</v>
       </c>
       <c r="E176">
-        <v>9.335711597784332</v>
+        <v>16.32083669745276</v>
       </c>
       <c r="F176">
-        <v>3.543278997370304</v>
+        <v>6.543744568264045</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>2.503206580640471</v>
+        <v>9.816585336952183</v>
       </c>
       <c r="C177">
-        <v>16.35427946145991</v>
+        <v>2.740925689682642</v>
       </c>
       <c r="D177">
-        <v>3.556595725363199</v>
+        <v>6.728973225894725</v>
       </c>
       <c r="E177">
-        <v>9.387445808124195</v>
+        <v>16.32724240944993</v>
       </c>
       <c r="F177">
-        <v>3.552885014205569</v>
+        <v>6.569559277807554</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>2.506678707418488</v>
+        <v>9.823272329934639</v>
       </c>
       <c r="C178">
-        <v>16.357777907886</v>
+        <v>2.74551454951099</v>
       </c>
       <c r="D178">
-        <v>3.562997960102027</v>
+        <v>6.771755942582034</v>
       </c>
       <c r="E178">
-        <v>9.439112383014567</v>
+        <v>16.33353835270974</v>
       </c>
       <c r="F178">
-        <v>3.562495040069591</v>
+        <v>6.595369974931124</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>2.510148649531163</v>
+        <v>9.829833400603501</v>
       </c>
       <c r="C179">
-        <v>16.36122339585658</v>
+        <v>2.750102371461332</v>
       </c>
       <c r="D179">
-        <v>3.56936901654676</v>
+        <v>6.814502246844239</v>
       </c>
       <c r="E179">
-        <v>9.490711057908904</v>
+        <v>16.33972695765499</v>
       </c>
       <c r="F179">
-        <v>3.572108990069609</v>
+        <v>6.621176623193805</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>2.513616276728071</v>
+        <v>9.836270929671462</v>
       </c>
       <c r="C180">
-        <v>16.36461708263012</v>
+        <v>2.75468916975818</v>
       </c>
       <c r="D180">
-        <v>3.575708904671723</v>
+        <v>6.857209992441565</v>
       </c>
       <c r="E180">
-        <v>9.542241573521855</v>
+        <v>16.34581058837988</v>
       </c>
       <c r="F180">
-        <v>3.581726779418543</v>
+        <v>6.646979186260962</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2.517081459457127</v>
+        <v>9.842587253752168</v>
       </c>
       <c r="C181">
-        <v>16.36796008388796</v>
+        <v>2.759274962218366</v>
       </c>
       <c r="D181">
-        <v>3.582017635448702</v>
+        <v>6.899877101926833</v>
       </c>
       <c r="E181">
-        <v>9.593703675701866</v>
+        <v>16.35179149786781</v>
       </c>
       <c r="F181">
-        <v>3.591348323437343</v>
+        <v>6.672777627902899</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2.520544068865612</v>
+        <v>9.848784664107262</v>
       </c>
       <c r="C182">
-        <v>16.37125347531256</v>
+        <v>2.763859770417659</v>
       </c>
       <c r="D182">
-        <v>3.58829522082023</v>
+        <v>6.942501569925107</v>
       </c>
       <c r="E182">
-        <v>9.645097115311295</v>
+        <v>16.35767191812806</v>
       </c>
       <c r="F182">
-        <v>3.6009735375573</v>
+        <v>6.698571911998554</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2.524003976801063</v>
+        <v>9.854865411223034</v>
       </c>
       <c r="C183">
-        <v>16.37449829411062</v>
+        <v>2.768443619500707</v>
       </c>
       <c r="D183">
-        <v>3.594541673672785</v>
+        <v>6.985081452234162</v>
       </c>
       <c r="E183">
-        <v>9.69642164811432</v>
+        <v>16.36345401774984</v>
       </c>
       <c r="F183">
-        <v>3.610602337322302</v>
+        <v>6.724362002538333</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>2.527461055812042</v>
+        <v>9.86083170370876</v>
       </c>
       <c r="C184">
-        <v>16.37769554046006</v>
+        <v>2.773026538291143</v>
       </c>
       <c r="D184">
-        <v>3.600757007809899</v>
+        <v>7.027614869300032</v>
       </c>
       <c r="E184">
-        <v>9.747677034671188</v>
+        <v>16.36913989886293</v>
       </c>
       <c r="F184">
-        <v>3.620234638391058</v>
+        <v>6.750147863621077</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>2.530915179148789</v>
+        <v>9.866685708869928</v>
       </c>
       <c r="C185">
-        <v>16.38084617890444</v>
+        <v>2.777608559430692</v>
       </c>
       <c r="D185">
-        <v>3.606941237925195</v>
+        <v>7.070100004753215</v>
       </c>
       <c r="E185">
-        <v>9.798863040239187</v>
+        <v>16.3747316062615</v>
       </c>
       <c r="F185">
-        <v>3.62987035653927</v>
+        <v>6.775929459453452</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2.534366220763743</v>
+        <v>9.87242955152391</v>
       </c>
       <c r="C186">
-        <v>16.3839511397047</v>
+        <v>2.782189719909819</v>
       </c>
       <c r="D186">
-        <v>3.613094379575369</v>
+        <v>7.112535108217511</v>
       </c>
       <c r="E186">
-        <v>9.849979434678975</v>
+        <v>16.38023108844874</v>
       </c>
       <c r="F186">
-        <v>3.639509407661774</v>
+        <v>6.801706754352002</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2.537814055311942</v>
+        <v>9.878065318358393</v>
       </c>
       <c r="C187">
-        <v>16.38701132014349</v>
+        <v>2.786770059931268</v>
       </c>
       <c r="D187">
-        <v>3.619216449153116</v>
+        <v>7.154918480061751</v>
       </c>
       <c r="E187">
-        <v>9.901025992366662</v>
+        <v>16.38564027503654</v>
       </c>
       <c r="F187">
-        <v>3.649151707774623</v>
+        <v>6.827479712747377</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2.54125855815131</v>
+        <v>9.883595056925801</v>
       </c>
       <c r="C188">
-        <v>16.3900275857766</v>
+        <v>2.791349623834848</v>
       </c>
       <c r="D188">
-        <v>3.625307463860028</v>
+        <v>7.197248479689297</v>
       </c>
       <c r="E188">
-        <v>9.952002492110596</v>
+        <v>16.39096104211963</v>
       </c>
       <c r="F188">
-        <v>3.658797173017134</v>
+        <v>6.853248299180634</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2.544699605342827</v>
+        <v>9.88902077615316</v>
       </c>
       <c r="C189">
-        <v>16.39300077163378</v>
+        <v>2.795928459919926</v>
       </c>
       <c r="D189">
-        <v>3.631367441679453</v>
+        <v>7.23952352501358</v>
       </c>
       <c r="E189">
-        <v>10.00290871707288</v>
+        <v>16.39619520787571</v>
       </c>
       <c r="F189">
-        <v>3.668445719653894</v>
+        <v>6.879012478303264</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2.548137073650578</v>
+        <v>9.89434444512718</v>
       </c>
       <c r="C190">
-        <v>16.3959316833742</v>
+        <v>2.800506620490158</v>
       </c>
       <c r="D190">
-        <v>3.63739640134936</v>
+        <v>7.281742088523734</v>
       </c>
       <c r="E190">
-        <v>10.05374445469514</v>
+        <v>16.40134454097681</v>
       </c>
       <c r="F190">
-        <v>3.678097264076726</v>
+        <v>6.904772214877887</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>2.5515708405417</v>
+        <v>9.899567997387756</v>
       </c>
       <c r="C191">
-        <v>16.39882109839983</v>
+        <v>2.805084161902952</v>
       </c>
       <c r="D191">
-        <v>3.643394362335173</v>
+        <v>7.32390268996932</v>
       </c>
       <c r="E191">
-        <v>10.10450949662816</v>
+        <v>16.40641072664074</v>
       </c>
       <c r="F191">
-        <v>3.68775172280662</v>
+        <v>6.930527473783446</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>2.555000784186202</v>
+        <v>9.904693329944219</v>
       </c>
       <c r="C192">
-        <v>16.40166976692738</v>
+        <v>2.809661147315821</v>
       </c>
       <c r="D192">
-        <v>3.649361344802637</v>
+        <v>7.366003900863747</v>
       </c>
       <c r="E192">
-        <v>10.15520363866532</v>
+        <v>16.41139543315775</v>
       </c>
       <c r="F192">
-        <v>3.697409012495615</v>
+        <v>6.956278220011129</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>2.558426783456692</v>
+        <v>9.909722303714158</v>
       </c>
       <c r="C193">
-        <v>16.40447841301931</v>
+        <v>2.814237640525096</v>
       </c>
       <c r="D193">
-        <v>3.655297369590688</v>
+        <v>7.408044347507845</v>
       </c>
       <c r="E193">
-        <v>10.20582668067926</v>
+        <v>16.4163002837721</v>
       </c>
       <c r="F193">
-        <v>3.707069049928638</v>
+        <v>6.98202441866485</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>2.561848717927984</v>
+        <v>9.914656742282933</v>
       </c>
       <c r="C194">
-        <v>16.40724773557478</v>
+        <v>2.818813710923291</v>
       </c>
       <c r="D194">
-        <v>3.661202458184359</v>
+        <v>7.450022698611323</v>
       </c>
       <c r="E194">
-        <v>10.25637842656188</v>
+        <v>16.42112685126864</v>
       </c>
       <c r="F194">
-        <v>3.716731752025318</v>
+        <v>7.007766034960871</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>2.565266467876604</v>
+        <v>9.919498436139303</v>
       </c>
       <c r="C195">
-        <v>16.40997840928276</v>
+        <v>2.823389432225811</v>
       </c>
       <c r="D195">
-        <v>3.667076632687718</v>
+        <v>7.491937668546452</v>
       </c>
       <c r="E195">
-        <v>10.30685868416707</v>
+        <v>16.42587666571957</v>
       </c>
       <c r="F195">
-        <v>3.726397035841753</v>
+        <v>7.033503034233716</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>2.568679914280192</v>
+        <v>9.924249141710261</v>
       </c>
       <c r="C196">
-        <v>16.41267108553784</v>
+        <v>2.827964882520361</v>
       </c>
       <c r="D196">
-        <v>3.672919915796866</v>
+        <v>7.533788017145921</v>
       </c>
       <c r="E196">
-        <v>10.35726726525636</v>
+        <v>16.43055118497658</v>
       </c>
       <c r="F196">
-        <v>3.73606481857224</v>
+        <v>7.059235381931813</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>2.5720889388168</v>
+        <v>9.928910581727539</v>
       </c>
       <c r="C197">
-        <v>16.41532639332522</v>
+        <v>2.832540144316371</v>
       </c>
       <c r="D197">
-        <v>3.67873233077299</v>
+        <v>7.575572553859504</v>
       </c>
       <c r="E197">
-        <v>10.40760398544688</v>
+        <v>16.43515185166981</v>
       </c>
       <c r="F197">
-        <v>3.745735017550981</v>
+        <v>7.084963043618325</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2.575493423864087</v>
+        <v>9.933484443989334</v>
       </c>
       <c r="C198">
-        <v>16.41794494006751</v>
+        <v>2.837115309388285</v>
       </c>
       <c r="D198">
-        <v>3.684513901415484</v>
+        <v>7.617290121865349</v>
       </c>
       <c r="E198">
-        <v>10.45786866416199</v>
+        <v>16.43968007060593</v>
       </c>
       <c r="F198">
-        <v>3.755407550253719</v>
+        <v>7.110685984969887</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2.578893252498422</v>
+        <v>9.937972385493032</v>
       </c>
       <c r="C199">
-        <v>16.42052731244003</v>
+        <v>2.841690468296881</v>
       </c>
       <c r="D199">
-        <v>3.690264652035163</v>
+        <v>7.658939607057008</v>
       </c>
       <c r="E199">
-        <v>10.5080611245837</v>
+        <v>16.4441372026523</v>
       </c>
       <c r="F199">
-        <v>3.765082334299379</v>
+        <v>7.136404171783128</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>2.582288308493879</v>
+        <v>9.942376031509079</v>
       </c>
       <c r="C200">
-        <v>16.42307407715445</v>
+        <v>2.846265718003477</v>
       </c>
       <c r="D200">
-        <v>3.69598460742755</v>
+        <v>7.700519937129895</v>
       </c>
       <c r="E200">
-        <v>10.55818119360694</v>
+        <v>16.44852457184291</v>
       </c>
       <c r="F200">
-        <v>3.774759287451641</v>
+        <v>7.162117569970052</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>2.585678476321151</v>
+        <v>9.946696975878908</v>
       </c>
       <c r="C201">
-        <v>16.42558578171385</v>
+        <v>2.850841160566914</v>
       </c>
       <c r="D201">
-        <v>3.701673792846283</v>
+        <v>7.742030080625797</v>
       </c>
       <c r="E201">
-        <v>10.60822870179635</v>
+        <v>16.45284343989262</v>
       </c>
       <c r="F201">
-        <v>3.784438327620494</v>
+        <v>7.187826145559156</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>2.589063641146348</v>
+        <v>9.95093677981599</v>
       </c>
       <c r="C202">
-        <v>16.42806295513779</v>
+        <v>2.855416902924773</v>
       </c>
       <c r="D202">
-        <v>3.707332233976623</v>
+        <v>7.783469036989837</v>
       </c>
       <c r="E202">
-        <v>10.65820348334476</v>
+        <v>16.4570950547099</v>
       </c>
       <c r="F202">
-        <v>3.794119372863768</v>
+        <v>7.213529864693461</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>2.59244368882973</v>
+        <v>9.955096975871339</v>
       </c>
       <c r="C203">
-        <v>16.43050610865936</v>
+        <v>2.859993056956285</v>
       </c>
       <c r="D203">
-        <v>3.712959956909079</v>
+        <v>7.824835843138742</v>
       </c>
       <c r="E203">
-        <v>10.70810537603305</v>
+        <v>16.46128063251076</v>
       </c>
       <c r="F203">
-        <v>3.803802341388591</v>
+        <v>7.239228693637467</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>2.595818505924323</v>
+        <v>9.959179067074453</v>
       </c>
       <c r="C204">
-        <v>16.43291573639539</v>
+        <v>2.864569744878247</v>
       </c>
       <c r="D204">
-        <v>3.718556988113177</v>
+        <v>7.866129575928024</v>
       </c>
       <c r="E204">
-        <v>10.75793422119136</v>
+        <v>16.46540135128761</v>
       </c>
       <c r="F204">
-        <v>3.813487151552854</v>
+        <v>7.264922598772365</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>2.599187979674463</v>
+        <v>9.963184527170601</v>
       </c>
       <c r="C205">
-        <v>16.43529231599066</v>
+        <v>2.869147088330046</v>
       </c>
       <c r="D205">
-        <v>3.72412335441135</v>
+        <v>7.907349342811443</v>
       </c>
       <c r="E205">
-        <v>10.80768986366187</v>
+        <v>16.4694583572848</v>
       </c>
       <c r="F205">
-        <v>3.823173721866623</v>
+        <v>7.290611546597381</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2.602551998014246</v>
+        <v>9.967114799469552</v>
       </c>
       <c r="C206">
-        <v>16.43763630923722</v>
+        <v>2.873725215133892</v>
       </c>
       <c r="D206">
-        <v>3.729659082952997</v>
+        <v>7.948494281962943</v>
       </c>
       <c r="E206">
-        <v>10.85737215176296</v>
+        <v>16.47345274309084</v>
       </c>
       <c r="F206">
-        <v>3.832861970993518</v>
+        <v>7.31629550372725</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>2.605910449565894</v>
+        <v>9.97097130062537</v>
       </c>
       <c r="C207">
-        <v>16.43994816266977</v>
+        <v>2.878304259244665</v>
       </c>
       <c r="D207">
-        <v>3.735164201188684</v>
+        <v>7.98956356402638</v>
       </c>
       <c r="E207">
-        <v>10.90698093725471</v>
+        <v>16.47738558871567</v>
       </c>
       <c r="F207">
-        <v>3.842551817752079</v>
+        <v>7.341974436899429</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>2.609263223638035</v>
+        <v>9.974755419851316</v>
       </c>
       <c r="C208">
-        <v>16.44222830813792</v>
+        <v>2.882884360135843</v>
       </c>
       <c r="D208">
-        <v>3.740638736844516</v>
+        <v>8.030556397251935</v>
       </c>
       <c r="E208">
-        <v>10.95651607530535</v>
+        <v>16.48125794766402</v>
       </c>
       <c r="F208">
-        <v>3.852243181117067</v>
+        <v>7.367648312969235</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>2.612610210223898</v>
+        <v>9.978468519101801</v>
       </c>
       <c r="C209">
-        <v>16.44447716335611</v>
+        <v>2.887465662879902</v>
       </c>
       <c r="D209">
-        <v>3.74608271789669</v>
+        <v>8.071472011500514</v>
       </c>
       <c r="E209">
-        <v>11.00597742445886</v>
+        <v>16.48507084021848</v>
       </c>
       <c r="F209">
-        <v>3.861935980220765</v>
+        <v>7.393317098911357</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2.615951299999435</v>
+        <v>9.982111931963221</v>
       </c>
       <c r="C210">
-        <v>16.44669513243223</v>
+        <v>2.892048323366079</v>
       </c>
       <c r="D210">
-        <v>3.751496172546227</v>
+        <v>8.112309667643148</v>
       </c>
       <c r="E210">
-        <v>11.05536484660356</v>
+        <v>16.4888252593095</v>
       </c>
       <c r="F210">
-        <v>3.87163013435423</v>
+        <v>7.418980761816941</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>2.619286384321354</v>
+        <v>9.985686967257601</v>
       </c>
       <c r="C211">
-        <v>16.44888260637552</v>
+        <v>2.896632498670099</v>
       </c>
       <c r="D211">
-        <v>3.756879129193917</v>
+        <v>8.15306865576386</v>
       </c>
       <c r="E211">
-        <v>11.10467820694162</v>
+        <v>16.49252215170722</v>
       </c>
       <c r="F211">
-        <v>3.881325562968522</v>
+        <v>7.44463926890085</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2.622615355225079</v>
+        <v>9.989194908326144</v>
       </c>
       <c r="C212">
-        <v>16.45103996358479</v>
+        <v>2.901218351576235</v>
       </c>
       <c r="D212">
-        <v>3.762231616415496</v>
+        <v>8.193748296338402</v>
       </c>
       <c r="E212">
-        <v>11.1539173739595</v>
+        <v>16.49616245273317</v>
       </c>
       <c r="F212">
-        <v>3.891022185675911</v>
+        <v>7.470292587496856</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>2.625938105422633</v>
+        <v>9.992637013158403</v>
       </c>
       <c r="C213">
-        <v>16.45316757031758</v>
+        <v>2.905806052162136</v>
       </c>
       <c r="D213">
-        <v>3.767553662936871</v>
+        <v>8.234347930548513</v>
       </c>
       <c r="E213">
-        <v>11.20308221939916</v>
+        <v>16.49974707558494</v>
       </c>
       <c r="F213">
-        <v>3.900719922251035</v>
+        <v>7.495940685059248</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>2.629254528300445</v>
+        <v>9.996014513321478</v>
       </c>
       <c r="C214">
-        <v>16.4552657811409</v>
+        <v>2.910395776790278</v>
       </c>
       <c r="D214">
-        <v>3.772845297609559</v>
+        <v>8.27486692650211</v>
       </c>
       <c r="E214">
-        <v>11.25217261823003</v>
+        <v>16.50327690459415</v>
       </c>
       <c r="F214">
-        <v>3.910418692632041</v>
+        <v>7.521583529159656</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>2.632564517917081</v>
+        <v>9.999328617397325</v>
       </c>
       <c r="C215">
-        <v>16.4573349393644</v>
+        <v>2.914987708207377</v>
       </c>
       <c r="D215">
-        <v>3.778106549386891</v>
+        <v>8.315304680033863</v>
       </c>
       <c r="E215">
-        <v>11.30118844862172</v>
+        <v>16.50675280053384</v>
       </c>
       <c r="F215">
-        <v>3.920118416921706</v>
+        <v>7.547221087494218</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>2.635867969000908</v>
+        <v>10.00258051032969</v>
       </c>
       <c r="C216">
-        <v>16.45937537745661</v>
+        <v>2.91958204106268</v>
       </c>
       <c r="D216">
-        <v>3.783337447299323</v>
+        <v>8.355660610109977</v>
       </c>
       <c r="E216">
-        <v>11.35012959191739</v>
+        <v>16.51017558303736</v>
       </c>
       <c r="F216">
-        <v>3.92981901538851</v>
+        <v>7.572853327878919</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>2.639164776947682</v>
+        <v>10.00577135350271</v>
       </c>
       <c r="C217">
-        <v>16.46138741744481</v>
+        <v>2.924178972879347</v>
       </c>
       <c r="D217">
-        <v>3.788538020431437</v>
+        <v>8.395934156337832</v>
       </c>
       <c r="E217">
-        <v>11.39899593260774</v>
+        <v>16.51354606227127</v>
       </c>
       <c r="F217">
-        <v>3.939520408467704</v>
+        <v>7.59848021825108</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>2.642454837818073</v>
+        <v>10.00890228371322</v>
       </c>
       <c r="C218">
-        <v>16.46337137129924</v>
+        <v>2.928778706249096</v>
       </c>
       <c r="D218">
-        <v>3.793708297898249</v>
+        <v>8.436124781446489</v>
       </c>
       <c r="E218">
-        <v>11.44778735830558</v>
+        <v>16.51686503014794</v>
       </c>
       <c r="F218">
-        <v>3.949222516762335</v>
+        <v>7.624101726666731</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>2.645738048335115</v>
+        <v>10.01197441643819</v>
       </c>
       <c r="C219">
-        <v>16.46532754130209</v>
+        <v>2.933381452596043</v>
       </c>
       <c r="D219">
-        <v>3.798848308821555</v>
+        <v>8.47623197504991</v>
       </c>
       <c r="E219">
-        <v>11.49650375972101</v>
+        <v>16.52013325303323</v>
       </c>
       <c r="F219">
-        <v>3.958925261044243</v>
+        <v>7.649717821306189</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2.649014305881594</v>
+        <v>10.01498884524521</v>
       </c>
       <c r="C220">
-        <v>16.46725622040274</v>
+        <v>2.937987430565332</v>
       </c>
       <c r="D220">
-        <v>3.803958082307469</v>
+        <v>8.516255242393326</v>
       </c>
       <c r="E220">
-        <v>11.545145030637</v>
+        <v>16.52335147685504</v>
       </c>
       <c r="F220">
-        <v>3.968628562255049</v>
+        <v>7.675328470471006</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>2.652283508497371</v>
+        <v>10.01794664182455</v>
       </c>
       <c r="C221">
-        <v>16.46915769255774</v>
+        <v>2.942596866145434</v>
       </c>
       <c r="D221">
-        <v>3.809037647423591</v>
+        <v>8.556194110254781</v>
       </c>
       <c r="E221">
-        <v>11.59371106788559</v>
+        <v>16.52652041810818</v>
       </c>
       <c r="F221">
-        <v>3.978332341507097</v>
+        <v>7.70093364258461</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>2.655545554876638</v>
+        <v>10.02084885501148</v>
       </c>
       <c r="C222">
-        <v>16.47103223305843</v>
+        <v>2.94720999911557</v>
       </c>
       <c r="D222">
-        <v>3.814087033176048</v>
+        <v>8.596048125923195</v>
       </c>
       <c r="E222">
-        <v>11.64220177132444</v>
+        <v>16.52964078065783</v>
       </c>
       <c r="F222">
-        <v>3.988036520084389</v>
+        <v>7.726533306190301</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2.658800344365118</v>
+        <v>10.02369651387561</v>
       </c>
       <c r="C223">
-        <v>16.47288010884533</v>
+        <v>2.951827074141616</v>
       </c>
       <c r="D223">
-        <v>3.819106268488091</v>
+        <v>8.635816859239339</v>
       </c>
       <c r="E223">
-        <v>11.69061704381387</v>
+        <v>16.53271325207318</v>
       </c>
       <c r="F223">
-        <v>3.997741019443481</v>
+        <v>7.752127429955483</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>2.662047776957194</v>
+        <v>10.02649062719653</v>
       </c>
       <c r="C224">
-        <v>16.47470157881015</v>
+        <v>2.956448339564075</v>
       </c>
       <c r="D224">
-        <v>3.824095382177954</v>
+        <v>8.675499893967087</v>
       </c>
       <c r="E224">
-        <v>11.73895679119426</v>
+        <v>16.53573849957131</v>
       </c>
       <c r="F224">
-        <v>4.007445761214359</v>
+        <v>7.777715982669938</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>2.665287753292991</v>
+        <v>10.02923218345476</v>
       </c>
       <c r="C225">
-        <v>16.47649689408597</v>
+        <v>2.961074054828253</v>
       </c>
       <c r="D225">
-        <v>3.829054402936846</v>
+        <v>8.715096833215481</v>
       </c>
       <c r="E225">
-        <v>11.78722092226391</v>
+        <v>16.53871717318049</v>
       </c>
       <c r="F225">
-        <v>4.017150667201293</v>
+        <v>7.803298933245782</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>2.668520174655392</v>
+        <v>10.03192214990734</v>
       </c>
       <c r="C226">
-        <v>16.4782662983259</v>
+        <v>2.96570448779007</v>
       </c>
       <c r="D226">
-        <v>3.833983359308507</v>
+        <v>8.754607299384981</v>
       </c>
       <c r="E226">
-        <v>11.8354093487571</v>
+        <v>16.54164988895514</v>
       </c>
       <c r="F226">
-        <v>4.026855659383667</v>
+        <v>7.828876250715975</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>2.671744942966995</v>
+        <v>10.03456147549606</v>
       </c>
       <c r="C227">
-        <v>16.48001002797078</v>
+        <v>2.970339914869222</v>
       </c>
       <c r="D227">
-        <v>3.838882279667711</v>
+        <v>8.794030932332985</v>
       </c>
       <c r="E227">
-        <v>11.88352198532267</v>
+        <v>16.54453725762575</v>
       </c>
       <c r="F227">
-        <v>4.036560659916783</v>
+        <v>7.854447904237423</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>2.674961960787022</v>
+        <v>10.03715109038779</v>
       </c>
       <c r="C228">
-        <v>16.48172831250634</v>
+        <v>2.974980628571827</v>
       </c>
       <c r="D228">
-        <v>3.843751192199525</v>
+        <v>8.833367385834043</v>
       </c>
       <c r="E228">
-        <v>11.9315587495028</v>
+        <v>16.5473798785426</v>
       </c>
       <c r="F228">
-        <v>4.046265591132649</v>
+        <v>7.880013863090327</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2.678171131308167</v>
+        <v>10.03969190592923</v>
       </c>
       <c r="C229">
-        <v>16.48342137471015</v>
+        <v>2.979626929571269</v>
       </c>
       <c r="D229">
-        <v>3.848590124879564</v>
+        <v>8.872616330344494</v>
       </c>
       <c r="E229">
-        <v>11.97951956171212</v>
+        <v>16.55017833075187</v>
       </c>
       <c r="F229">
-        <v>4.055970375540729</v>
+        <v>7.905574096677603</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2.681372358353398</v>
+        <v>10.04218481377513</v>
       </c>
       <c r="C230">
-        <v>16.48508943088886</v>
+        <v>2.984279119635604</v>
       </c>
       <c r="D230">
-        <v>3.853399105453411</v>
+        <v>8.911777454873693</v>
       </c>
       <c r="E230">
-        <v>12.02740434521709</v>
+        <v>16.55293317813277</v>
       </c>
       <c r="F230">
-        <v>4.065674935828689</v>
+        <v>7.931128574523818</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2.684565546372698</v>
+        <v>10.0446306886194</v>
       </c>
       <c r="C231">
-        <v>16.48673269110606</v>
+        <v>2.988937514839829</v>
       </c>
       <c r="D231">
-        <v>3.858178161417122</v>
+        <v>8.950850460807933</v>
       </c>
       <c r="E231">
-        <v>12.0752130261157</v>
+        <v>16.55564496096404</v>
       </c>
       <c r="F231">
-        <v>4.07537919486311</v>
+        <v>7.956677266277325</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2.687750600439766</v>
+        <v>10.04703038779701</v>
       </c>
       <c r="C232">
-        <v>16.48835135940108</v>
+        <v>2.993602441209109</v>
       </c>
       <c r="D232">
-        <v>3.862927319998284</v>
+        <v>8.98983506399674</v>
       </c>
       <c r="E232">
-        <v>12.12294553331735</v>
+        <v>16.55831421064072</v>
       </c>
       <c r="F232">
-        <v>4.085083075690182</v>
+        <v>7.982220141710507</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>2.690927426248657</v>
+        <v>10.04938475120646</v>
       </c>
       <c r="C233">
-        <v>16.48994563399922</v>
+        <v>2.998274234914183</v>
       </c>
       <c r="D233">
-        <v>3.867646608136377</v>
+        <v>9.028730994862588</v>
       </c>
       <c r="E233">
-        <v>12.17060179852301</v>
+        <v>16.56094144743132</v>
       </c>
       <c r="F233">
-        <v>4.094786501536385</v>
+        <v>8.007757170718754</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>2.694095930110388</v>
+        <v>10.0516946004889</v>
       </c>
       <c r="C234">
-        <v>16.49151570751366</v>
+        <v>3.002953247365427</v>
       </c>
       <c r="D234">
-        <v>3.872336052464572</v>
+        <v>9.067538000346527</v>
       </c>
       <c r="E234">
-        <v>12.21818175620561</v>
+        <v>16.56352717559886</v>
       </c>
       <c r="F234">
-        <v>4.10448939580913</v>
+        <v>8.033288323319761</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>2.697256018949485</v>
+        <v>10.05396074158878</v>
       </c>
       <c r="C235">
-        <v>16.49306176713925</v>
+        <v>3.007639844177527</v>
       </c>
       <c r="D235">
-        <v>3.876995679291617</v>
+        <v>9.106255837118347</v>
       </c>
       <c r="E235">
-        <v>12.26568534359063</v>
+        <v>16.56607188641178</v>
       </c>
       <c r="F235">
-        <v>4.114191682097397</v>
+        <v>8.05881356965485</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>2.70040760030049</v>
+        <v>10.0561839644132</v>
       </c>
       <c r="C236">
-        <v>16.49458399483882</v>
+        <v>3.012334394165167</v>
       </c>
       <c r="D236">
-        <v>3.881625514583223</v>
+        <v>9.144884275711037</v>
       </c>
       <c r="E236">
-        <v>12.31311250063689</v>
+        <v>16.56857604859032</v>
       </c>
       <c r="F236">
-        <v>4.12389328417235</v>
+        <v>8.08433287998994</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>2.703550582304429</v>
+        <v>10.05836504272558</v>
       </c>
       <c r="C237">
-        <v>16.49608256752199</v>
+        <v>3.017037281932809</v>
       </c>
       <c r="D237">
-        <v>3.886225583945162</v>
+        <v>9.183423100082692</v>
       </c>
       <c r="E237">
-        <v>12.36046317001757</v>
+        <v>16.57104012422558</v>
       </c>
       <c r="F237">
-        <v>4.133594125987924</v>
+        <v>8.109846224714163</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>2.706684873705221</v>
+        <v>10.06050473337481</v>
       </c>
       <c r="C238">
-        <v>16.49755765721698</v>
+        <v>3.021748904472274</v>
       </c>
       <c r="D238">
-        <v>3.890795912606055</v>
+        <v>9.221872107301191</v>
       </c>
       <c r="E238">
-        <v>12.40773729710135</v>
+        <v>16.57346456688136</v>
       </c>
       <c r="F238">
-        <v>4.143294131681404</v>
+        <v>8.135353574339462</v>
       </c>
     </row>
   </sheetData>
